--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0D11B2-B9F0-40EC-9971-6B5456480C03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCD2D7-1A7E-4B53-A9A0-B26320F6E79C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="21" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="22" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="20200314" sheetId="29" r:id="rId25"/>
     <sheet name="20200321" sheetId="30" r:id="rId26"/>
     <sheet name="20200328" sheetId="32" r:id="rId27"/>
+    <sheet name="20200404" sheetId="33" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1688">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38953,6 +38954,613 @@
   </si>
   <si>
     <t>suǒ yǐ wǒ děi zǎo qǐ 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QingMing festival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qing Ming jie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天有两千五百多年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which has a history of more than 2500 years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hell Back Notes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>qīng míng jiē shì zhōng guó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chuán tǒng jiē rì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it’s one of the most import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traditional festivals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in China, also it's the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Festival of sacrifice</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yě shì zuì zhòng yào de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jì sì jiē rì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>清明节是中国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传统节日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也是最重要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>祭祀节日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rén men huì zài zhè tiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jì zǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hé sǎo mù </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人们会在这天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>祭祖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和扫墓。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People will pay their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>respects to their ancestors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and sweep their tombs on this day</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jù lí jīn tiān yǒu liǎng qiān wǔ bǎi duō nián 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中华民族</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的传统的清明节大约开始于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周朝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，距离</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The traditional QingMing festival of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chinese nation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> began around the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zhou dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhōng huá mín zú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de chuán tǒng de qīng míng jiē dà yuē kāi shǐ yú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhōu cháo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè tiān ，rén men huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhǐ qián gěi zǔ xiān 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这天，人们会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纸钱给祖先。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zài zhǐ bì shàng yě yǒu tā de xíng xiàng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阎王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通常穿着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古代官府</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在纸币上也有他的形象。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yán wáng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tōng cháng chuān zhe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gǔ dài guān fǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，																	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YanWang is  a normally wearing a Chinese </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ancient judge's cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and sometimes appears on </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gōng yuán qián</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gōng yuán hòu </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> some paper spiritual money to ancestors.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51181,7 +51789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B83875-298B-4369-B852-360CE0EF71FD}">
   <dimension ref="C3:AX56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -51745,6 +52353,603 @@
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
       <c r="AN56" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D144B9A3-748C-407B-935D-62605552AB90}">
+  <dimension ref="C3:BE56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="8" width="2.640625" style="29"/>
+    <col min="9" max="9" width="2.7109375" style="29" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="29"/>
+    <col min="16" max="16" width="2.640625" style="29" customWidth="1"/>
+    <col min="17" max="33" width="2.640625" style="29"/>
+    <col min="34" max="34" width="2.640625" style="29" customWidth="1"/>
+    <col min="35" max="36" width="2.640625" style="29"/>
+    <col min="37" max="37" width="2.640625" style="29" customWidth="1"/>
+    <col min="38" max="16384" width="2.640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="C3" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="I3" s="30"/>
+      <c r="AD3" s="23"/>
+    </row>
+    <row r="4" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D4" s="23" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="AA4" s="29" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AD4" s="23"/>
+    </row>
+    <row r="5" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D5" s="29" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+    </row>
+    <row r="6" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D6" s="23"/>
+      <c r="AD6" s="23"/>
+    </row>
+    <row r="7" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="AA7" s="29" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AD7" s="23"/>
+      <c r="AK7" s="33"/>
+    </row>
+    <row r="8" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AK8" s="33"/>
+    </row>
+    <row r="9" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="32"/>
+    </row>
+    <row r="10" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="AA10" s="29" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AD10" s="23"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="32"/>
+      <c r="AN10" s="23"/>
+    </row>
+    <row r="11" spans="3:41" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+    </row>
+    <row r="12" spans="3:41" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="32"/>
+    </row>
+    <row r="13" spans="3:41" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="AA13" s="29" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AD13" s="23"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="32"/>
+    </row>
+    <row r="14" spans="3:41" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="29" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="AA14" s="29" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AD14" s="23"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="32"/>
+    </row>
+    <row r="15" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="AD15" s="23"/>
+      <c r="AK15" s="33"/>
+      <c r="AO15" s="23"/>
+    </row>
+    <row r="16" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="32"/>
+      <c r="AO16" s="23"/>
+    </row>
+    <row r="17" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="AA17" s="29" t="s">
+        <v>1687</v>
+      </c>
+      <c r="AD17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="32"/>
+      <c r="AO17" s="23"/>
+    </row>
+    <row r="18" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="32"/>
+      <c r="AO18" s="23"/>
+    </row>
+    <row r="19" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="32"/>
+      <c r="AO19" s="23"/>
+    </row>
+    <row r="20" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="AA20" s="29" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AD20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AO20" s="23"/>
+    </row>
+    <row r="21" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="AA21" s="29" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AD21" s="23"/>
+      <c r="AK21" s="33"/>
+      <c r="AO21" s="23"/>
+    </row>
+    <row r="22" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="32"/>
+      <c r="AO22" s="23"/>
+    </row>
+    <row r="23" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="E23" s="23"/>
+      <c r="AJ23" s="32"/>
+      <c r="AO23" s="23"/>
+    </row>
+    <row r="24" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="E24" s="23"/>
+      <c r="AJ24" s="32"/>
+      <c r="AO24" s="23"/>
+    </row>
+    <row r="25" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="E25" s="23"/>
+      <c r="AJ25" s="32"/>
+      <c r="AO25" s="23"/>
+    </row>
+    <row r="26" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D26" s="29" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="G26" s="29" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AJ26" s="32"/>
+      <c r="AO26" s="23"/>
+    </row>
+    <row r="27" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D27" s="29" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="G27" s="29" t="s">
+        <v>1686</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AJ27" s="32"/>
+      <c r="AO27" s="23"/>
+    </row>
+    <row r="28" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="AJ28" s="32"/>
+      <c r="AO28" s="23"/>
+    </row>
+    <row r="29" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="AJ29" s="32"/>
+      <c r="AO29" s="23"/>
+    </row>
+    <row r="30" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="AJ30" s="32"/>
+      <c r="AO30" s="23"/>
+    </row>
+    <row r="31" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="32"/>
+      <c r="AO31" s="23"/>
+    </row>
+    <row r="32" spans="4:41" x14ac:dyDescent="0.35">
+      <c r="D32" s="23"/>
+      <c r="AJ32" s="32"/>
+      <c r="AO32" s="23"/>
+    </row>
+    <row r="33" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="32"/>
+      <c r="AO33" s="23"/>
+    </row>
+    <row r="34" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="D34" s="23"/>
+      <c r="AJ34" s="32"/>
+      <c r="AO34" s="23"/>
+    </row>
+    <row r="35" spans="3:47" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="AJ35" s="32"/>
+      <c r="AO35" s="23"/>
+    </row>
+    <row r="36" spans="3:47" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="23"/>
+      <c r="AJ36" s="32"/>
+      <c r="AO36" s="23"/>
+    </row>
+    <row r="37" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="E37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="32"/>
+      <c r="AO37" s="23"/>
+    </row>
+    <row r="38" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="E38" s="23"/>
+      <c r="AO38" s="23"/>
+    </row>
+    <row r="39" spans="3:47" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="23"/>
+      <c r="AO39" s="23"/>
+    </row>
+    <row r="40" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="AK40" s="23"/>
+    </row>
+    <row r="41" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="AK41" s="23"/>
+    </row>
+    <row r="42" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="AK42" s="23"/>
+    </row>
+    <row r="43" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="E44" s="23"/>
+      <c r="AK44" s="23"/>
+    </row>
+    <row r="45" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23"/>
+    </row>
+    <row r="47" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23"/>
+      <c r="AU47" s="23"/>
+    </row>
+    <row r="48" spans="3:47" x14ac:dyDescent="0.35">
+      <c r="C48" s="38"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="23"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="23"/>
+      <c r="AS48" s="23"/>
+      <c r="AT48" s="23"/>
+      <c r="AU48" s="23"/>
+    </row>
+    <row r="49" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23"/>
+      <c r="AU49" s="23"/>
+      <c r="BC49" s="23"/>
+      <c r="BD49" s="23"/>
+      <c r="BE49" s="23"/>
+    </row>
+    <row r="50" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="AJ50" s="23"/>
+      <c r="AK50" s="23"/>
+      <c r="AL50" s="23"/>
+      <c r="AM50" s="23"/>
+      <c r="AN50" s="23"/>
+      <c r="AO50" s="23"/>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="23"/>
+      <c r="AR50" s="23"/>
+      <c r="AS50" s="23"/>
+      <c r="AT50" s="23"/>
+      <c r="AU50" s="23"/>
+      <c r="BC50" s="23"/>
+      <c r="BD50" s="23"/>
+      <c r="BE50" s="23"/>
+    </row>
+    <row r="51" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="23"/>
+      <c r="AO51" s="23"/>
+      <c r="AP51" s="23"/>
+      <c r="AQ51" s="23"/>
+      <c r="AR51" s="23"/>
+      <c r="AS51" s="23"/>
+      <c r="AT51" s="23"/>
+      <c r="AU51" s="23"/>
+    </row>
+    <row r="52" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="23"/>
+      <c r="AO52" s="23"/>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="23"/>
+      <c r="AR52" s="23"/>
+      <c r="AS52" s="23"/>
+      <c r="AT52" s="23"/>
+      <c r="AU52" s="23"/>
+    </row>
+    <row r="53" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="23"/>
+      <c r="AQ53" s="23"/>
+      <c r="AR53" s="23"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="23"/>
+      <c r="AU53" s="23"/>
+      <c r="AY53" s="36"/>
+    </row>
+    <row r="54" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="AL54" s="23"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="23"/>
+      <c r="AO54" s="23"/>
+      <c r="AP54" s="23"/>
+      <c r="AQ54" s="23"/>
+      <c r="AR54" s="23"/>
+      <c r="AS54" s="23"/>
+      <c r="AT54" s="23"/>
+      <c r="AU54" s="23"/>
+      <c r="AY54" s="36"/>
+    </row>
+    <row r="55" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="AL55" s="23"/>
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="23"/>
+      <c r="AO55" s="23"/>
+      <c r="AP55" s="23"/>
+      <c r="AQ55" s="23"/>
+      <c r="AR55" s="23"/>
+      <c r="AS55" s="23"/>
+      <c r="AT55" s="23"/>
+      <c r="AU55" s="23"/>
+    </row>
+    <row r="56" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C56" s="36"/>
+      <c r="AL56" s="23"/>
+      <c r="AM56" s="23"/>
+      <c r="AN56" s="23"/>
+      <c r="AO56" s="23"/>
+      <c r="AP56" s="23"/>
+      <c r="AQ56" s="23"/>
+      <c r="AR56" s="23"/>
+      <c r="AS56" s="23"/>
+      <c r="AT56" s="23"/>
+      <c r="AU56" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCD2D7-1A7E-4B53-A9A0-B26320F6E79C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0D6FEA-1B38-45C3-9FAD-B4F9D12C36A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="22" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="20200321" sheetId="30" r:id="rId26"/>
     <sheet name="20200328" sheetId="32" r:id="rId27"/>
     <sheet name="20200404" sheetId="33" r:id="rId28"/>
+    <sheet name="20200411" sheetId="34" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1731">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39560,6 +39561,1131 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> some paper spiritual money to ancestors.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 最近怎么样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 你怎么知道的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C: 把你的症状告诉我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: What's going on?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: How do you know?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C: Please tell me about your symptoms.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuì jìn zěn me yàng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没什么新鲜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>老样子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。为什么这么问？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nothing much</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>just the usual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Why do you ask?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>méi shí me xīn xiān de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lǎo yàng zǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。wéi shí me zhè me wèn ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ zěn me zhī dào de ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bǎ nǐ de zhèng zhuàng gào sù wǒ 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流鼻涕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你看起来像是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发烧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nose is running</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and you seem like you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have a fever</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liú bí tì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ kàn qǐ lái xiàng shì zài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fā shāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 从你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>症状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看出来的，我们应该去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I can see </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>your symptoms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. We should go to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> see a doctor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cóng nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhèng zhuàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kàn chū lái de ，wǒ men yīng gāi qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kàn yī shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 太好了，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>希望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那个说英语的医生能帮我。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Great, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the English-speaking doctor can help me.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tài hǎo le ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xī wàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nà gè shuō yīng yǔ de yī shēng néng bāng wǒ 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: My nose is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constantly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> running. I have a fever and I vomited a few times. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>老</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是流鼻涕，发烧，你觉得我是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>感冒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shì liú bí tì ，fā shāo ，nǐ jiào dé wǒ shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gǎn mào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you think it is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C: 不是，我想可能是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C: Sorry to say, no. I think it might be the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú shì ，wǒ xiǎng kě néng shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liú gǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 流感比感冒更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>严重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">liú gǎn bǐ gǎn mào gèng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yán zhòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Is the flu more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>serious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than a cold?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C: 是的，流感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四处传播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，更糟糕。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C: Correct. The flu that is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>going around</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is rather bad.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，liú gǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sì chù chuán bō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，gèng zāo gāo 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我的朋友玛丽昨天也发烧了，是她</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传染</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我的吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: My friend Mary was also have a fever, Do you think she </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the flu to me?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C: 可能，你应该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尽快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>医院</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C: Maybe, you should come into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hospital</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as soon as possible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>kě néng ，nǐ yīng gāi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jìn kuài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yī yuàn</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See the doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我吐了， wǒ tǔ le </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I vomited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ de péng yǒu Mary zuó tiān yě fā shāo le  ，shì tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuán rǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gěi wǒ de ma ？</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52365,7 +53491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D144B9A3-748C-407B-935D-62605552AB90}">
   <dimension ref="C3:BE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -52958,6 +54084,604 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D02019-92B0-4E22-AD62-F1F59CBAB36F}">
+  <dimension ref="C3:BG49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="8" width="2.640625" style="29"/>
+    <col min="9" max="9" width="2.7109375" style="29" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="29"/>
+    <col min="16" max="16" width="2.640625" style="29" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="29"/>
+    <col min="36" max="36" width="2.640625" style="29" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="29"/>
+    <col min="39" max="39" width="2.640625" style="29" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C3" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="I3" s="30"/>
+      <c r="AF3" s="23"/>
+    </row>
+    <row r="4" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D4" s="23" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="AF4" s="23"/>
+    </row>
+    <row r="5" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C5" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="AC5" s="29" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF5" s="23"/>
+    </row>
+    <row r="6" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D6" s="29" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+    </row>
+    <row r="7" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C7" s="29" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="AC7" s="29" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF7" s="23"/>
+    </row>
+    <row r="8" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AM8" s="33"/>
+    </row>
+    <row r="9" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C9" s="29" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="AC9" s="29" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AF9" s="23"/>
+      <c r="AM9" s="33"/>
+    </row>
+    <row r="10" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+    </row>
+    <row r="11" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C11" s="29" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="AC11" s="29" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AF11" s="23"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="32"/>
+      <c r="AP11" s="23"/>
+    </row>
+    <row r="12" spans="3:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="13" spans="3:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="29" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="AC13" s="29" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AF13" s="23"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="32"/>
+    </row>
+    <row r="14" spans="3:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="32"/>
+    </row>
+    <row r="15" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C15" s="29" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="AC15" s="29" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AF15" s="23"/>
+      <c r="AM15" s="33"/>
+      <c r="AQ15" s="23"/>
+    </row>
+    <row r="16" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="32"/>
+      <c r="AQ16" s="23"/>
+    </row>
+    <row r="17" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C17" s="29" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="AC17" s="29" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AF17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="32"/>
+      <c r="AQ17" s="23"/>
+    </row>
+    <row r="18" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="32"/>
+      <c r="AQ18" s="23"/>
+    </row>
+    <row r="19" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C19" s="29" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="AC19" s="29" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AF19" s="23"/>
+      <c r="AM19" s="33"/>
+      <c r="AQ19" s="23"/>
+    </row>
+    <row r="20" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="AD20" s="29" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AF20" s="23"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="32"/>
+      <c r="AQ20" s="23"/>
+    </row>
+    <row r="21" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C21" s="29" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="AC21" s="29" t="s">
+        <v>1714</v>
+      </c>
+      <c r="AL21" s="32"/>
+      <c r="AQ21" s="23"/>
+    </row>
+    <row r="22" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D22" s="29" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="AL22" s="32"/>
+      <c r="AQ22" s="23"/>
+    </row>
+    <row r="23" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C23" s="29" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="AC23" s="29" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AL23" s="32"/>
+      <c r="AQ23" s="23"/>
+    </row>
+    <row r="24" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D24" s="23" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="AL24" s="32"/>
+      <c r="AQ24" s="23"/>
+    </row>
+    <row r="25" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C25" s="29" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="AC25" s="29" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AL25" s="32"/>
+      <c r="AQ25" s="23"/>
+    </row>
+    <row r="26" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="32"/>
+      <c r="AQ26" s="23"/>
+    </row>
+    <row r="27" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C27" s="29" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AC27" s="29" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="32"/>
+      <c r="AQ27" s="23"/>
+    </row>
+    <row r="28" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D28" s="23" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AL28" s="32"/>
+      <c r="AQ28" s="23"/>
+    </row>
+    <row r="29" spans="3:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="29" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="AC29" s="29" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AL29" s="32"/>
+      <c r="AQ29" s="23"/>
+    </row>
+    <row r="30" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D30" s="29" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="32"/>
+      <c r="AQ30" s="23"/>
+    </row>
+    <row r="31" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="E31" s="23"/>
+      <c r="AQ31" s="23"/>
+    </row>
+    <row r="32" spans="3:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="23"/>
+      <c r="AQ32" s="23"/>
+    </row>
+    <row r="33" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="C33" s="29" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="J33" s="29" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AM33" s="23"/>
+    </row>
+    <row r="34" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="AM34" s="23"/>
+    </row>
+    <row r="35" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="AM35" s="23"/>
+    </row>
+    <row r="36" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="E37" s="23"/>
+      <c r="AM37" s="23"/>
+    </row>
+    <row r="38" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+    </row>
+    <row r="40" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
+      <c r="AT40" s="23"/>
+      <c r="AU40" s="23"/>
+      <c r="AV40" s="23"/>
+      <c r="AW40" s="23"/>
+    </row>
+    <row r="41" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="C41" s="38"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
+      <c r="AR41" s="23"/>
+      <c r="AS41" s="23"/>
+      <c r="AT41" s="23"/>
+      <c r="AU41" s="23"/>
+      <c r="AV41" s="23"/>
+      <c r="AW41" s="23"/>
+    </row>
+    <row r="42" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
+      <c r="AR42" s="23"/>
+      <c r="AS42" s="23"/>
+      <c r="AT42" s="23"/>
+      <c r="AU42" s="23"/>
+      <c r="AV42" s="23"/>
+      <c r="AW42" s="23"/>
+      <c r="BE42" s="23"/>
+      <c r="BF42" s="23"/>
+      <c r="BG42" s="23"/>
+    </row>
+    <row r="43" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="23"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="BE43" s="23"/>
+      <c r="BF43" s="23"/>
+      <c r="BG43" s="23"/>
+    </row>
+    <row r="44" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
+      <c r="AT44" s="23"/>
+      <c r="AU44" s="23"/>
+      <c r="AV44" s="23"/>
+      <c r="AW44" s="23"/>
+    </row>
+    <row r="45" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
+      <c r="AT45" s="23"/>
+      <c r="AU45" s="23"/>
+      <c r="AV45" s="23"/>
+      <c r="AW45" s="23"/>
+    </row>
+    <row r="46" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23"/>
+      <c r="AV46" s="23"/>
+      <c r="AW46" s="23"/>
+      <c r="BA46" s="36"/>
+    </row>
+    <row r="47" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23"/>
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="23"/>
+      <c r="BA47" s="36"/>
+    </row>
+    <row r="48" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="23"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="23"/>
+      <c r="AS48" s="23"/>
+      <c r="AT48" s="23"/>
+      <c r="AU48" s="23"/>
+      <c r="AV48" s="23"/>
+      <c r="AW48" s="23"/>
+    </row>
+    <row r="49" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C49" s="36"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23"/>
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AF23"/>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0D6FEA-1B38-45C3-9FAD-B4F9D12C36A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8323E-93BD-4C0B-B754-11DD13513A5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="20200328" sheetId="32" r:id="rId27"/>
     <sheet name="20200404" sheetId="33" r:id="rId28"/>
     <sheet name="20200411" sheetId="34" r:id="rId29"/>
+    <sheet name="20200418" sheetId="35" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1764">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40687,6 +40688,136 @@
       </rPr>
       <t xml:space="preserve"> gěi wǒ de ma ？</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古诗两首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐代：白居易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离离原上草，一岁一枯荣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野火烧不尽，春风吹又生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠汪伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐代：李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白乘舟将欲行，忽闻岸上踏歌声。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cǎo </t>
+  </si>
+  <si>
+    <t>táng dài ：bái jū yì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lí lí yuán shàng cǎo ，yī suì yī kū róng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yě huǒ shāo bú jìn ，chūn fēng chuī yòu shēng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zèng wāng lún </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lǐ bái chéng zhōu jiāng yù xing，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hū wén àn shàng tà gē shēng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bú jí wāng lún sòng wǒ qíng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gǔ shī liǎng shǒu </t>
+  </si>
+  <si>
+    <t>two ancient poetry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Tang Dynasty: bái jū yì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The grass is thick on the grassland,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once a year there is an alternation of blight and flourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild fire can't burn up  them,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They will grow out when the spring wind comes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>táng dài ：lǐ bái</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Tang Dynasty: lǐ bái</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present Wang Lun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花潭水深千尺，不及汪伦送我情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li bai wants to travel by boat，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The peach blossom pool depth thousand feet,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> less than Wang Lun send me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suddenly he head singing and dancing in the bank.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>táo huā tán shuǐ shen qiān chǐ ，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54088,7 +54219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D02019-92B0-4E22-AD62-F1F59CBAB36F}">
   <dimension ref="C3:BG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
@@ -55002,6 +55133,585 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B76428C-87A1-4667-BACC-1B380355DDA5}">
+  <dimension ref="B3:BG50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="8" width="2.640625" style="29"/>
+    <col min="9" max="9" width="2.7109375" style="29" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="29"/>
+    <col min="16" max="16" width="2.640625" style="29" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="29"/>
+    <col min="36" max="36" width="2.640625" style="29" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="29"/>
+    <col min="39" max="39" width="2.640625" style="29" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="C3" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="I3" s="30"/>
+      <c r="AF3" s="23"/>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="D4" s="23"/>
+      <c r="I4" s="30"/>
+      <c r="AF4" s="23"/>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="H5" s="29" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="AE5" s="29" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AF5" s="23"/>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="E7" s="23" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AM7" s="33"/>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="C8" s="29" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="AD8" s="29" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AF8" s="23"/>
+      <c r="AM8" s="33"/>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="AB9" s="29" t="s">
+        <v>1751</v>
+      </c>
+      <c r="AF9" s="23"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="32"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B10" s="29" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="AB10" s="29" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AF10" s="23"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+      <c r="AP10" s="23"/>
+    </row>
+    <row r="11" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AB11" s="29" t="s">
+        <v>1753</v>
+      </c>
+      <c r="AF11" s="23"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="32"/>
+    </row>
+    <row r="12" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="29" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="AB12" s="29" t="s">
+        <v>1754</v>
+      </c>
+      <c r="AF12" s="23"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="13" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="32"/>
+    </row>
+    <row r="14" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="32"/>
+    </row>
+    <row r="15" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AF15" s="23"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="32"/>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="AF16" s="23"/>
+      <c r="AM16" s="33"/>
+      <c r="AQ16" s="23"/>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="AE17" s="29" t="s">
+        <v>1757</v>
+      </c>
+      <c r="AF17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="32"/>
+      <c r="AQ17" s="23"/>
+    </row>
+    <row r="18" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="AD18" s="29" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AF18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="32"/>
+      <c r="AQ18" s="23"/>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B19" s="29" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="AB19" s="29" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AF19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="32"/>
+      <c r="AQ19" s="23"/>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="AB20" s="29" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AF20" s="23"/>
+      <c r="AM20" s="33"/>
+      <c r="AQ20" s="23"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="AB21" s="29" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AF21" s="23"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="32"/>
+      <c r="AQ21" s="23"/>
+    </row>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B22" s="29" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="AB22" s="29" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AL22" s="32"/>
+      <c r="AQ22" s="23"/>
+    </row>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B23" s="29" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="AL23" s="32"/>
+      <c r="AQ23" s="23"/>
+    </row>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="AL24" s="32"/>
+      <c r="AQ24" s="23"/>
+    </row>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B25" s="29" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="AL25" s="32"/>
+      <c r="AQ25" s="23"/>
+    </row>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B26" s="29" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="AL26" s="32"/>
+      <c r="AQ26" s="23"/>
+    </row>
+    <row r="27" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="32"/>
+      <c r="AQ27" s="23"/>
+    </row>
+    <row r="28" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="32"/>
+      <c r="AQ28" s="23"/>
+    </row>
+    <row r="29" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="D29" s="23"/>
+      <c r="AL29" s="32"/>
+      <c r="AQ29" s="23"/>
+    </row>
+    <row r="30" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="23"/>
+      <c r="AL30" s="32"/>
+      <c r="AQ30" s="23"/>
+    </row>
+    <row r="31" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="E31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="32"/>
+      <c r="AQ31" s="23"/>
+    </row>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="E32" s="23"/>
+      <c r="AQ32" s="23"/>
+    </row>
+    <row r="33" spans="3:59" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="23"/>
+      <c r="AQ33" s="23"/>
+    </row>
+    <row r="34" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="AM34" s="23"/>
+    </row>
+    <row r="35" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="AM35" s="23"/>
+    </row>
+    <row r="36" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="AM36" s="23"/>
+    </row>
+    <row r="37" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="E38" s="23"/>
+      <c r="AM38" s="23"/>
+    </row>
+    <row r="39" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
+      <c r="AT40" s="23"/>
+      <c r="AU40" s="23"/>
+      <c r="AV40" s="23"/>
+      <c r="AW40" s="23"/>
+    </row>
+    <row r="41" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
+      <c r="AR41" s="23"/>
+      <c r="AS41" s="23"/>
+      <c r="AT41" s="23"/>
+      <c r="AU41" s="23"/>
+      <c r="AV41" s="23"/>
+      <c r="AW41" s="23"/>
+    </row>
+    <row r="42" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="C42" s="38"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
+      <c r="AR42" s="23"/>
+      <c r="AS42" s="23"/>
+      <c r="AT42" s="23"/>
+      <c r="AU42" s="23"/>
+      <c r="AV42" s="23"/>
+      <c r="AW42" s="23"/>
+    </row>
+    <row r="43" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="23"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="BE43" s="23"/>
+      <c r="BF43" s="23"/>
+      <c r="BG43" s="23"/>
+    </row>
+    <row r="44" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
+      <c r="AT44" s="23"/>
+      <c r="AU44" s="23"/>
+      <c r="AV44" s="23"/>
+      <c r="AW44" s="23"/>
+      <c r="BE44" s="23"/>
+      <c r="BF44" s="23"/>
+      <c r="BG44" s="23"/>
+    </row>
+    <row r="45" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
+      <c r="AT45" s="23"/>
+      <c r="AU45" s="23"/>
+      <c r="AV45" s="23"/>
+      <c r="AW45" s="23"/>
+    </row>
+    <row r="46" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23"/>
+      <c r="AV46" s="23"/>
+      <c r="AW46" s="23"/>
+    </row>
+    <row r="47" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23"/>
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="23"/>
+      <c r="BA47" s="36"/>
+    </row>
+    <row r="48" spans="3:59" x14ac:dyDescent="0.35">
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="23"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="23"/>
+      <c r="AS48" s="23"/>
+      <c r="AT48" s="23"/>
+      <c r="AU48" s="23"/>
+      <c r="AV48" s="23"/>
+      <c r="AW48" s="23"/>
+      <c r="BA48" s="36"/>
+    </row>
+    <row r="49" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23"/>
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="23"/>
+    </row>
+    <row r="50" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C50" s="36"/>
+      <c r="AN50" s="23"/>
+      <c r="AO50" s="23"/>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="23"/>
+      <c r="AR50" s="23"/>
+      <c r="AS50" s="23"/>
+      <c r="AT50" s="23"/>
+      <c r="AU50" s="23"/>
+      <c r="AV50" s="23"/>
+      <c r="AW50" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AP34"/>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8323E-93BD-4C0B-B754-11DD13513A5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCECFF5-9C56-4E98-8806-6B035901F4F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="20200404" sheetId="33" r:id="rId28"/>
     <sheet name="20200411" sheetId="34" r:id="rId29"/>
     <sheet name="20200418" sheetId="35" r:id="rId30"/>
+    <sheet name="20200516" sheetId="36" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="1821">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40818,6 +40819,1767 @@
   </si>
   <si>
     <t>táo huā tán shuǐ shen qiān chǐ ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 有空，你有什么事啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:  那Mary呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 是的，没错，每个人都要有团队合作的精神。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 我会的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Yes, What's the matter?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>than anyone else.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: What about Mary?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Yes, your are right, Everyone should have the spirit of teamwork.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: I Will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ yǒu shen me yì jiàn ma ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nà Mary ne ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hǎo de ，wǒ men xià wǔ kāi gè huì ，rú guǒ méi yǒu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rú guǒ yǒu rén méi yǒu zuò hǎo zì jǐ de gōng zuò ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shì de ，méi cuò ，měi gè rén dōu yào yǒu tuán duì hé zuò de jīng shén 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ huì de </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ér qiě wǒ bǐ rèn hé rén dōu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shú xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 听起来不错，你觉得John</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擅长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>什么？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Sounds good. What do you think John is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tīng qǐ lái bú cuò ，nǐ ju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dé John </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shàn ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>á</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shen me</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā yī zhí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cóng shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bǎn miàn shè jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de gōng zuò ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 他一直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>版面设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的工作，所以他是图片部分的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最佳人选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: He has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>been working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> layout design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so he is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the picture section.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">suǒ yǐ tā shì tú piàn bù fèn de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zuì jiā rén xuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 她很有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>耐心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谨慎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以可以让她负责重写部分。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: She is very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cautious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. So she can focus on the rewrites.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 好的，我们下午开个会，如果没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>异议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我们就开始。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yì yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ men jiù kāi shǐ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Okay, we have a meeting in the afternoon. If there is no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, we shall begin.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 员工之间建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团队合作精神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很重要，如果有人没有做好自己的工作，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yuán gōng zhī jiān jiàn lì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tuán duì hé zuò jīng shén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hěn zhòng yào ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhěng gè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tuán duì jiù huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zāo yāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">or her job well, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> team will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整个团队就会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遭殃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 你下午要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重点强调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这一点。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ xià wǔ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhòng diǎn qiáng diào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhè yī diǎn 。	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: you should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>highlight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this point this afternoon.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 早上好，我有件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想和你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一下，你现在有空吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Good morning. I have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discuss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with you. Have you got a minute?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zǎo shàng hǎo ，wǒ yǒu jiàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shì qíng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xiǎng hé nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shāng liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ xiàn zài yǒu k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yǒu kòng ，nǐ yǒu shen me shì ā ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>都负责一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>版块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你有什么意见吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ men tuán duì de měi yī gè rén dōu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fù zé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bǎn kuài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">going to need to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. What's your view?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wéi le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>àn shí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wán chéng gōng zuò ，nǐ xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fā huī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tuán duì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de zuò yòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In order to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> finish the work </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you need to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">play a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> role.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Everyone in our team is </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成工作，你需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发挥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我们团队的每一个人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愿意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的这一版块，我已经做了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而且我比任何人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yuàn yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fù zé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shù jù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de zhè yī bǎn kuài ，wǒ yǐ jīng zuò le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dà bù fèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'d like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to carry on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> section. I've done </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most of it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and I'm more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>familiar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with it</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shu ju ku  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā hěn yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nài xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jǐn shèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，suǒ yǐ kě yǐ ràng tā fù zé ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng xiě bù fèn 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Building </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teamwork spirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> among the employees is very important, if anyone does not do his</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -40825,7 +42587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41151,6 +42913,20 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -55137,8 +56913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B76428C-87A1-4667-BACC-1B380355DDA5}">
   <dimension ref="B3:BG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -55712,6 +57488,377 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C882A889-9318-4E4F-92F2-09776314F908}">
+  <dimension ref="C2:BA51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D3" s="23" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="4" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="AD4" s="23" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D6" s="23" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AM6" s="33"/>
+    </row>
+    <row r="7" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C7" s="23" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AM7" s="33"/>
+    </row>
+    <row r="8" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="32"/>
+    </row>
+    <row r="9" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C9" s="23" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AD9" s="23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="32"/>
+    </row>
+    <row r="10" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>1807</v>
+      </c>
+      <c r="AE10" s="23" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+    </row>
+    <row r="11" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="32"/>
+    </row>
+    <row r="12" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="13" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="32"/>
+    </row>
+    <row r="14" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AD14" s="23" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="32"/>
+    </row>
+    <row r="15" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>1780</v>
+      </c>
+      <c r="AE15" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="32"/>
+    </row>
+    <row r="16" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="AM16" s="33"/>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="32"/>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AD18" s="23" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="32"/>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="32"/>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="AM20" s="33"/>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="32"/>
+    </row>
+    <row r="22" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AL22" s="32"/>
+    </row>
+    <row r="23" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AL23" s="32"/>
+    </row>
+    <row r="24" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AD24" s="23" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AL24" s="32"/>
+    </row>
+    <row r="25" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>1775</v>
+      </c>
+      <c r="AL25" s="32"/>
+    </row>
+    <row r="26" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C26" s="23" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AD26" s="23" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AL26" s="32"/>
+    </row>
+    <row r="27" spans="3:40" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="D27" s="23" t="s">
+        <v>1819</v>
+      </c>
+      <c r="AL27" s="32"/>
+    </row>
+    <row r="28" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="AL28" s="32"/>
+    </row>
+    <row r="29" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AD29" s="23" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AL29" s="32"/>
+    </row>
+    <row r="30" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AL30" s="32"/>
+    </row>
+    <row r="31" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D31" s="23" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AL31" s="32"/>
+    </row>
+    <row r="32" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C32" s="23" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AD32" s="23" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="33" spans="3:53" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="23" t="s">
+        <v>1798</v>
+      </c>
+      <c r="AE33" s="23" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="34" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="35" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="36" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D36" s="23" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="37" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C37" s="23" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AD37" s="23" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="38" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D38" s="23" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="40" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C40" s="23" t="s">
+        <v>1799</v>
+      </c>
+      <c r="AD40" s="23" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="41" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D41" s="23" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="42" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+    </row>
+    <row r="43" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C43" s="23" t="s">
+        <v>1768</v>
+      </c>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AE43" s="32"/>
+    </row>
+    <row r="44" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D44" s="23" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="47" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C47" s="23" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="48" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="BA48" s="36"/>
+    </row>
+    <row r="49" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="BA49" s="36"/>
+    </row>
+    <row r="51" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C51" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AP34"/>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCECFF5-9C56-4E98-8806-6B035901F4F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D876E-ADA4-4B17-8069-D5675222A14D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="26" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="20200411" sheetId="34" r:id="rId29"/>
     <sheet name="20200418" sheetId="35" r:id="rId30"/>
     <sheet name="20200516" sheetId="36" r:id="rId31"/>
+    <sheet name="20200524" sheetId="37" r:id="rId32"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1873">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42579,6 +42580,1550 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> among the employees is very important, if anyone does not do his</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 我该怎么做呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你认为压力是件好事还是坏事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 也许你是对的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 你真的太好了，谢谢你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: what am I supposed to do ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with you friends, which will make you feel better.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or a bad thing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Maybe you're right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ gāi zěn me zuò ne ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhè yàng huì ràng nǐ gǎn jiào hǎo yī diǎn 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shì de ，wǒ xū yào yī gè kě yǐ shuō huà de rén ，zhè yàng wǒ jiù kě yǐ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhè bìng bú shì yī jiàn huài shì 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yě xǔ nǐ shì duì de 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ zhēn de tài hǎo le ，xiè xiè nǐ 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你看起来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脸色不好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，怎么了?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: nǐ kàn qǐ lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liǎn sè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bú hǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，zěn me le ?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: You look very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Is there anything wrong with you?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ràng wǒ tóng shí zuò liǎng gè xiàng mù, wǒ bú xiǎng ràng tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shī wàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">two projects all at once. I didn't want to let him </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>两个项目，我不想让他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你应该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>积极</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应对压力。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yīng gāi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jī jí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yīng duì yā lì 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: you should handle the strees </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 是的，我需要一个可以说话的人，这样我就可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压力了，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes, I need a person to talk to so that I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relieve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the stress. Do you think stree is a good thing</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">huǎn jiě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yā lì le ，nǐ rèn wéi yā lì shì jiàn hǎo shì hái shì huài shì ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放松点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>， 如果你愿意的话，可以跟我说点什么。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Take it easy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. You can say something to me if you like.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work overtime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ zuó tiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiā bān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le ，suǒ yǐ zuó tiān wǎn shàng wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bú dé bú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>áo yè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我昨天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加班了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以昨天晚上我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不得不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熬夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>worked overtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yesterday. So I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>had to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stay up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> last night.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我明白了，你看起来很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忧郁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，有什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I see. You look </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>worried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, is there any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trouble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with you? Would you like </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ míng bái le ，nǐ kàn qǐ lái hěn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yōu yù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，yǒu shí me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kùn nán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你想跟我说说这件事吗？或许我可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to talk to me about it? Perhaps I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ xiǎng gēn wǒ shuō shuō zhè jiàn shì ma ？huò xǔ wǒ kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我最近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很大。我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>领导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>严格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，让我同时做</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I've been under a lot of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lately. My </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and asked me to do </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zuì jìn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yā lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hěn dà 。wǒ de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lǐng dǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yán gé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你应该与朋友</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>感受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样会让你感觉好一点。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yīng gāi yǔ péng yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fèn xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gǎn shòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 这要看情况。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在我看来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，压力可以使人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这并不是一件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: it depends, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in my opinion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, stree can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push someone forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and it is not a bad thing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>zhè yào kàn qíng kuàng 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zài wǒ kàn lái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，yā lì kě yǐ shǐ rén </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jìn bù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fàng sōng diǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">， rú guǒ nǐ yuàn yì de huà ，kě yǐ gēn wǒ shuō diǎn shen me 。	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: You are so kind, thank you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 当你面对压力的时候，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>积极的心态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很重要。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除此之外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>positive attitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is very important when you face stress. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Besides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feelings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dāng nǐ miàn duì yā lì de shí hòu ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">jī jí de xīn tài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hěn zhòng yào 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chú cǐ zhī wài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57492,8 +59037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C882A889-9318-4E4F-92F2-09776314F908}">
   <dimension ref="C2:BA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -57851,6 +59396,350 @@
     </row>
     <row r="51" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C51" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CDD7D-0A30-4F4B-B762-5E4E10FC78C7}">
+  <dimension ref="C2:BA47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI27" sqref="AI27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="E3" s="23" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="4" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D4" s="23" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="AB4" s="23" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="E5" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D6" s="23" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AM6" s="33"/>
+    </row>
+    <row r="7" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="E7" s="23" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="32"/>
+    </row>
+    <row r="8" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="32"/>
+    </row>
+    <row r="9" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="23" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AC9" s="23" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="32"/>
+    </row>
+    <row r="10" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+    </row>
+    <row r="11" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="23" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="32"/>
+    </row>
+    <row r="12" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AB12" s="23" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="13" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="23" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AC13" s="23" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="32"/>
+    </row>
+    <row r="14" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="E14" s="23" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="AM14" s="33"/>
+    </row>
+    <row r="15" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="E15" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="32"/>
+    </row>
+    <row r="16" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="32"/>
+    </row>
+    <row r="17" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E17" s="23" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="32"/>
+    </row>
+    <row r="18" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AM18" s="33"/>
+    </row>
+    <row r="19" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E19" s="23" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="32"/>
+    </row>
+    <row r="20" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AB20" s="23" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AL20" s="32"/>
+    </row>
+    <row r="21" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E21" s="23" t="s">
+        <v>1863</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AL21" s="32"/>
+    </row>
+    <row r="22" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E22" s="23" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AL22" s="32"/>
+    </row>
+    <row r="23" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E23" s="23" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AL23" s="32"/>
+    </row>
+    <row r="24" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E24" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AL24" s="32"/>
+    </row>
+    <row r="25" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>1845</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AL25" s="32"/>
+    </row>
+    <row r="26" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E26" s="23" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AC26" s="23" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AL26" s="32"/>
+    </row>
+    <row r="27" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E27" s="23" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AL27" s="32"/>
+    </row>
+    <row r="28" spans="4:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AL28" s="32"/>
+    </row>
+    <row r="29" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AB29" s="23" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AL29" s="32"/>
+    </row>
+    <row r="30" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E30" s="23" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="31" spans="4:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="23" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="32" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="E32" s="23" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="33" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D33" s="23" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AB33" s="23" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="34" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="E34" s="23" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="35" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AB35" s="23" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="36" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="E36" s="23" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="37" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D37" s="23" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AB37" s="23" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="38" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="E38" s="23" t="s">
+        <v>1835</v>
+      </c>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+    </row>
+    <row r="39" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+    </row>
+    <row r="44" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="BA44" s="36"/>
+    </row>
+    <row r="45" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="BA45" s="36"/>
+    </row>
+    <row r="47" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C47" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D876E-ADA4-4B17-8069-D5675222A14D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6223214-B3F6-4993-A576-6CB324DD7E81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="26" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="27" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <sheet name="20200418" sheetId="35" r:id="rId30"/>
     <sheet name="20200516" sheetId="36" r:id="rId31"/>
     <sheet name="20200524" sheetId="37" r:id="rId32"/>
+    <sheet name="20200531" sheetId="38" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1936">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44125,6 +44126,1225 @@
       </rPr>
       <t xml:space="preserve"> ，</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call somebody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 你叫什么名字？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 我叫Rachel。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的一个朋友Green小姐在Hilton酒店和Smith先生共进晚餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Green小姐… 在7:30Hilton酒店，好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 547-556-379.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 你还想让我告诉smith先生什么吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Got it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 就这些，谢谢，再见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: May I have your name?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: This is Rachel speaking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Miss Green… at 7:30 at the Hilton, OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 547-556-379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: is there anything else you would like me to tell Mr Smith?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: That's all, thank you, good bye.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ jiào Rachel。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green xiǎo jiě … zài 7:30Hilton jiǔ diàn ，hǎo de 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ hái xiǎng ràng wǒ gào sù smith xiān shēng shí me ma ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ yǐ jīng dìng guò le 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hǎo de 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiù zhè xiē ，xiè xiè ，zài jiàn 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你好，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我可以和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smith先生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说话吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Hello, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>May I speak to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mr Smith?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ hǎo ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wǒ kě yǐ hé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Smith xiān shēng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shuō huà ma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ jiào shén me míng zi ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hold on, please.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am sorry that he is out of the office right now. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qǐng shāo děng 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hěn bào qiàn ，tā bú zài bàn gōng shì 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请稍等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。很抱歉，他不在办公室。他去见一个很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重要的人物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā qù jiàn yī gè hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhòng yào de rén wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He is meeting an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>important people</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Could you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>call him later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚点再打电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>留言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave a message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wǎn diǎn zài dǎ diàn huà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hái shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liú yán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; Okay. Let me leave a message for him, but it is just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a little complicated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hǎo ba ，wǒ gěi tā liú yán ba 。dàn shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu diǎn fù zá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 好吧，我给他留言吧。但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有点复杂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要在7点半和我们</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am Mr Smith's friend. I was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supposed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to meet Mr Smith for dineer at</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>běn lái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yào zài 7diǎn bàn hé wǒ men de yī gè péng yǒu Green xiǎo jiě</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hilton jiǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hé Smith xiān shēng gòng jìn wǎn cān 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:30 at the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hilton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a friend of us, Miss Green.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dàn shì Green xiǎo jiě de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fēi jī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wǎn diǎn le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，suǒ yǐ wǒ xiàn zài xū yào</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 但是Green小姐的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚点了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以我现在需要去机场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接她</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: But Miss Green's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arrived late</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. So I need to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pick her up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the airport now.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qù jī chǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiē tā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , qǐng gào sù tā shí jiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gǎi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chéng bā diǎn le 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please tell him that the time is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to eight.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>请告诉他时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成八点了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 好的，你能告诉我你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电话号码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Ok, May I have your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>telephone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，nǐ néng gào sù wǒ nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diàn huà hào mǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 请告诉他，不要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为晚餐订位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我已经订过了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Please tell him not to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take reservations for dineer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, I have already done it.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qǐng gào sù tā ，bú yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wéi wǎn cān dìng wèi zhì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shi xxx ma?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiǎn dān</t>
+  </si>
+  <si>
+    <t>simple,easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">个十百千万   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gè shí bǎi qiān wàn </t>
+  </si>
+  <si>
+    <t>ten billion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ì</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一千一百一十一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59408,8 +60628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CDD7D-0A30-4F4B-B762-5E4E10FC78C7}">
   <dimension ref="C2:BA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI27" sqref="AI27"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -59740,6 +60960,392 @@
     </row>
     <row r="47" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C47" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848D9323-1F0D-45DF-AADB-2E1BFD349A7F}">
+  <dimension ref="C2:BA47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="5.2109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D3" s="23" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="4" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>1895</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="P4" s="23" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>1883</v>
+      </c>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="32"/>
+    </row>
+    <row r="7" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="32"/>
+    </row>
+    <row r="8" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="23" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AC8" s="23" t="s">
+        <v>1884</v>
+      </c>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="32"/>
+    </row>
+    <row r="9" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="32"/>
+    </row>
+    <row r="10" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AC10" s="23" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+    </row>
+    <row r="11" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="32"/>
+    </row>
+    <row r="12" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AD12" s="23" t="s">
+        <v>1905</v>
+      </c>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="13" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="AM13" s="33"/>
+    </row>
+    <row r="14" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="AM14" s="33"/>
+    </row>
+    <row r="15" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C15" s="23" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AC15" s="23" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="32"/>
+    </row>
+    <row r="16" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AD16" s="23" t="s">
+        <v>1910</v>
+      </c>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="32"/>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AD17" s="23" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="32"/>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AM18" s="33"/>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AM19" s="33"/>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C20" s="23" t="s">
+        <v>1877</v>
+      </c>
+      <c r="AC20" s="23" t="s">
+        <v>1885</v>
+      </c>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="32"/>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AL21" s="32"/>
+    </row>
+    <row r="22" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C22" s="23" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AL22" s="32"/>
+    </row>
+    <row r="23" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AD23" s="23" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AL23" s="32"/>
+    </row>
+    <row r="24" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D24" s="23" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AL24" s="32"/>
+    </row>
+    <row r="25" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AL25" s="32"/>
+    </row>
+    <row r="26" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C26" s="23" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AC26" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AL26" s="32"/>
+    </row>
+    <row r="27" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D27" s="23" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AL27" s="32"/>
+    </row>
+    <row r="28" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>1886</v>
+      </c>
+      <c r="AL28" s="32"/>
+    </row>
+    <row r="29" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AC30" s="23" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="31" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D31" s="23" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="33" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AC33" s="23" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="34" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="35" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="36" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C36" s="23" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+    </row>
+    <row r="37" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D37" s="23" t="s">
+        <v>1893</v>
+      </c>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+    </row>
+    <row r="38" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C38" s="23" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AC38" s="23" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="39" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D39" s="23" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="42" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D42" s="23" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>1928</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>1929</v>
+      </c>
+      <c r="BA42" s="36"/>
+    </row>
+    <row r="43" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D43" s="23" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>1931</v>
+      </c>
+      <c r="BA43" s="36"/>
+    </row>
+    <row r="44" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D44" s="23" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="45" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C45" s="36"/>
+    </row>
+    <row r="46" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D46" s="23">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="47" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D47" s="23" t="s">
+        <v>1935</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6223214-B3F6-4993-A576-6CB324DD7E81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AED68D-B482-4AC7-BC63-903DC9BBB8C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="27" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="20200516" sheetId="36" r:id="rId31"/>
     <sheet name="20200524" sheetId="37" r:id="rId32"/>
     <sheet name="20200531" sheetId="38" r:id="rId33"/>
+    <sheet name="20200614" sheetId="39" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1998">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45345,6 +45346,1790 @@
   </si>
   <si>
     <t>一千一百一十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做为我的股票经纪人，你怎么想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 如果他们做的很好，为什么还需要我的投资呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 是什么呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 有什么区别吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 作为一个投资人，我是什么呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 那就是你想做的吧，对吧？帮我买股票吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> As my stockbroker, what do you think?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: If they're doing so well, why do they need my investment?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:And what are they.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:What's the difference?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:So what am I, as an investor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: That's where you come in, right? Buying the stock for me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dào nǐ bàn gōng shì 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rú guǒ tā men zuò de hěn hǎo ，wéi shen me hái xū yào wǒ de tóu zī ne ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shì shí me ne ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yǒu shen me qū bié ma ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nà jiù shì nǐ xiǎng zuò de ba ，duì ba ？bāng wǒ mǎi gǔ piào ba 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 谢谢你能来，很抱歉，我没能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>准时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到你办公室。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiè xiè nǐ néng lái ，hěn bào qiàn ，wǒ méi néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zhǔn shí </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 没关系，这对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>股票经纪人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来说，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寻常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时间，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">méi guān xì ，zhè duì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gǔ piào jīng jì rén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lái shuō ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shì gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xún cháng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de shí jiān ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在说了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我们是老朋友了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: That's all right. It's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unusual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stockier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to keep these hours. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And besides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, you're an old friend.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zài shuō le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ men shì lǎo péng yǒu le 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:So, as I was saying. I think this might be a good time for me to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invest in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computer company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 所以正如我所说的，这可能是我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电脑公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的好时机。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">suǒ yǐ zhèng rú wǒ suǒ shuō de ，zhè kě néng shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tóu zī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nà jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diàn nǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gōng sī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de hǎo shí jī 。zuò wéi wǒ de gǔ piào jīng jì rén ，nǐ zěn me xiǎng 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 好吧，让我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稍微</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一下公司的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>财务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:All right. Let me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>explain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a little</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abot corporate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finance.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo ba ，ràng wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shāo wēi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiě shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yī xià gōng sī de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cái wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 开始吧，当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涉及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到我的钱的时候，我非常感兴趣。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kāi shǐ ba ，dāng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shè jí dào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ de qián de shí hòu ，wǒ fēi cháng gǎn xìng qù 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 首先，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公司企业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要融资，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特别是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果他们想要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shǒu xiān ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gōng sī qǐ yè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xū yào róng zī ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tè bié shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rú guǒ tā men xiǎng yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kuò zhāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B;First of all, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corporate enterprises</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, need financing, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>especially</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if they want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Now, there are two </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiàn zài yǒu liǎng zhǒng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jī běn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de róng zī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fāng shì</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>basic types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of financing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>现在有两种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的融资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>举债</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rù gǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jǔ zhài</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金钱的使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由业主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的业务被称为股权融资，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>use of money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>supplied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by the owners of a business is called equity funding,  debt funding.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jīn qián de shǐ yòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yóu yè zhǔ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tí gòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de yè wù bèi chēng wéi gǔ quán róng zī ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zī jīn de shǐ yòng tí gòng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dài kuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bèi chēng wéi jǔ zhài róng zī 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and the use of money supplied by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is called debt funding</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资金的使用提供的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贷款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被称为举债融资。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:Well, you become a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partial owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the company and receive equity. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 嗯， 你成为公司的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部分所有者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并且获得股权。你可以得到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> èn ， nǐ chéng wéi gōng sī de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bù fèn suǒ yǒu zhě</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bìng qiě huò dé gǔ quán 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You get shares of coommon stock to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>represent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your portion of ownership.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一些普通股票来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的所有权。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ kě yǐ dé dào yī xiē pǔ tōng gǔ piào lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dài biǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de suǒ yǒu quán</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Thanks for coming over. I'm sorry I couldn't get to your office </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我认为他们做的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，他们可能会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欢迎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的投资。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ rèn wéi tā men zuò de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hěn hǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，tā men kě néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huì huān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yíng nǐ de tóu zī 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B:I think they're doing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> extremely well</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. And they would probably </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>welcome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your investment.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:Go ahead. When it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concerns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> my money, I'm very interested.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同   bu tong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuò wéi yī gè tóu zī rén ，wǒ shì shen me ne ？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60972,7 +62757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848D9323-1F0D-45DF-AADB-2E1BFD349A7F}">
   <dimension ref="C2:BA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
@@ -61345,6 +63130,395 @@
     <row r="47" spans="3:53" x14ac:dyDescent="0.35">
       <c r="D47" s="23" t="s">
         <v>1935</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B387F16-D0F5-4174-A352-C7602F9ABBAA}">
+  <dimension ref="C2:BA49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D3" s="23" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="4" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>1954</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="AB4" s="23" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="E6" s="23" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="32"/>
+    </row>
+    <row r="7" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="23" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="32"/>
+    </row>
+    <row r="8" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="32"/>
+    </row>
+    <row r="9" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="32"/>
+    </row>
+    <row r="10" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+    </row>
+    <row r="11" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="23" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="32"/>
+    </row>
+    <row r="12" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AC12" s="23" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="13" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="AM13" s="33"/>
+    </row>
+    <row r="14" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="AM14" s="33"/>
+    </row>
+    <row r="15" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C15" s="23" t="s">
+        <v>1992</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>1994</v>
+      </c>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="32"/>
+    </row>
+    <row r="16" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>1993</v>
+      </c>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="32"/>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="32"/>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AM18" s="33"/>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AM19" s="33"/>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="32"/>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AB21" s="23" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AL21" s="32"/>
+    </row>
+    <row r="22" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AL22" s="32"/>
+    </row>
+    <row r="23" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="AL23" s="32"/>
+    </row>
+    <row r="24" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AB24" s="23" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AL24" s="32"/>
+    </row>
+    <row r="25" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AL25" s="32"/>
+    </row>
+    <row r="26" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C26" s="23" t="s">
+        <v>1970</v>
+      </c>
+      <c r="AB26" s="23" t="s">
+        <v>1972</v>
+      </c>
+      <c r="AL26" s="32"/>
+    </row>
+    <row r="27" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AC27" s="23" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AL27" s="32"/>
+    </row>
+    <row r="28" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D28" s="23" t="s">
+        <v>1971</v>
+      </c>
+      <c r="AL28" s="32"/>
+    </row>
+    <row r="29" spans="3:40" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="30" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AB30" s="23" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="31" spans="3:40" x14ac:dyDescent="0.35">
+      <c r="D31" s="23" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="33" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>1976</v>
+      </c>
+      <c r="AB33" s="23" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="34" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="35" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C35" s="23" t="s">
+        <v>1940</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>1996</v>
+      </c>
+      <c r="AB35" s="23" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="36" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D36" s="23" t="s">
+        <v>1952</v>
+      </c>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+    </row>
+    <row r="37" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C37" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+    </row>
+    <row r="38" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D38" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AC38" s="23" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="39" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D39" s="23" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="40" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D40" s="23" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="41" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C41" s="23" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AB41" s="23" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="42" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D42" s="23" t="s">
+        <v>1997</v>
+      </c>
+      <c r="BA42" s="36"/>
+    </row>
+    <row r="43" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="BA43" s="36"/>
+    </row>
+    <row r="44" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C44" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AB44" s="23" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="45" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C45" s="36"/>
+      <c r="D45" s="23" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AB45" s="23" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="46" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D46" s="23" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="47" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="D47" s="23" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="48" spans="3:53" x14ac:dyDescent="0.35">
+      <c r="C48" s="23" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AB48" s="23" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="23" t="s">
+        <v>1953</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AED68D-B482-4AC7-BC63-903DC9BBB8C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7472A078-8B39-4ED6-AD6B-237C1F9A3D5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="20200524" sheetId="37" r:id="rId32"/>
     <sheet name="20200531" sheetId="38" r:id="rId33"/>
     <sheet name="20200614" sheetId="39" r:id="rId34"/>
+    <sheet name="20200621" sheetId="40" r:id="rId35"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="2042">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47130,6 +47131,1380 @@
   </si>
   <si>
     <t>zuò wéi yī gè tóu zī rén ，wǒ shì shen me ne ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 没错，我想知道我能不能再多休一个星期。我打算和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 那是很长的一段时间，你的项目进展的怎么样了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>days off from next week?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Yes, you're right. I wouder if I can rest for another one week, I'm going on holiday </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: That's a long time, how's your project going?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nà shì hěn zhǎng de yī duàn shí jiān ，nǐ de xiàng mù </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jìn zhǎn de zěn me yàng le ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 早上好，smith先生，你看起来很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，怎么了？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zǎo shàng hǎo ，smith xiān shēng ，nǐ kàn qǐ lái hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，zěn me le ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Good morning, Mr Smith. You look very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, What's the matter with you?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 这些天我感到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>筋疲力尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>休息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一段时间，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè xiē tiān wǒ gǎn dào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jīn pí lì jìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiū xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yī duàn shí jiān ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I feel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exhausted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> these days. I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have a rest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for some time. Could I take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>several</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cóng xià zhōu kāi shǐ wǒ néng qǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jǐ tiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiǎ ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从下周开始我能请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>几天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>假吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 当然可以了。你还有十天的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: Of cours. Let me see, you still have ten days of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annual leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, right?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家人一起去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>澳大利亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>度假。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Australia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with my family.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我现在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目将于下周二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我想在下周三</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: The project that I am now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in charge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of will be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by next Tuesday. I'd like to start my </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xiàn zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fù zé de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xiàng mù jiāng yú xià zhōu èr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wán chéng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vacation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from next Wednesday.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开始我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>假期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A:  没问题，在你离开之前必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手头上的一些琐事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">méi wèn tí ，zài nǐ lí kāi zhī qián bì xū </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chù lǐ hǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shǒu tóu shàng de yī xiē suǒ shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Thank you very much. There is no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>immediate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> project in our company. Mr Green will be </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B:  非常感谢。我们公司还没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>立即开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的项目。Green先生</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fēi cháng gǎn xiè 。wǒ men gōng sī hái méi yǒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lì jí kāi shǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiàng mù 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Green xiān shēng zài wǒ xiū jiǎ shí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fù zé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ de gōng zuò ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在我休假时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我的工作，他作为我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>助手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了几个项目，并且</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in charge of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> my work during my absence. He </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>participated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in several projects as my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assistant</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā zuò wéi wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhù shǒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cān yǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le jǐ gè xiàng mù ，bìng qiě </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dāng rán kě yǐ le 。nǐ hái yǒu shí tiān de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nián ji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，duì ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>méi cuò ，wǒ xiǎng zhī dào wǒ néng b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> néng zài duō xiū yī gè xīng qī 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xiǎng zài xià zhōu sān kāi shǐ wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qī.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: That's no problem. You must make sure to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tie up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loosen ends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before leaving.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhī dào rú hé yǔ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kè hù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bǎo chí guān xì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and he knows how to keep a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relationship with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>知道如何与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保持关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很棒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，祝愿你玩得开心。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wonderful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, I hope you will have a good time.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hěn bàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhù yuàn nǐ wán dé kāi xīn 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ dǎ suàn hé jiā rén yī qǐ qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ào dà lì yà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dù ji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62757,8 +64132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848D9323-1F0D-45DF-AADB-2E1BFD349A7F}">
   <dimension ref="C2:BA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -63143,7 +64518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B387F16-D0F5-4174-A352-C7602F9ABBAA}">
   <dimension ref="C2:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
@@ -63519,6 +64894,233 @@
     <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="23" t="s">
         <v>1953</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790361AA-FCAC-4205-9050-05F1C2BBD54E}">
+  <dimension ref="C2:AC33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="D4" s="23" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E5" s="23" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="D6" s="23" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E7" s="23" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E8" s="23" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E9" s="23" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E11" s="23" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AB12" s="23" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E13" s="23" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AC13" s="23" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E14" s="23" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="E15" s="23" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E17" s="23" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E18" s="23" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AB19" s="23" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E20" s="23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AC20" s="23" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E21" s="23" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E22" s="23" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E24" s="23" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E26" s="23" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AC26" s="23" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E27" s="23" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AC27" s="23" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E28" s="23" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E29" s="23" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E30" s="23" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="E31" s="23" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AB32" s="23" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="23" t="s">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7472A078-8B39-4ED6-AD6B-237C1F9A3D5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8785A-9E39-43A0-AFE9-EE137AA86470}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="30" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <sheet name="20200531" sheetId="38" r:id="rId33"/>
     <sheet name="20200614" sheetId="39" r:id="rId34"/>
     <sheet name="20200621" sheetId="40" r:id="rId35"/>
+    <sheet name="20200705" sheetId="41" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="2042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="2083">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48504,6 +48505,1471 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分钟后就畅通了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will be cleared in ten minutes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shí fèn zhōng hòu jiù chàng tōng le </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A. Ross, 现在已经8点了，你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为什么还没到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Ross, it's eight now, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Why aren't you here yet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I'm sorry, Jane. I'm still in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>halfway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traffic is too heavy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. My car</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我的车像一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌龟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一样在挪动。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ de chē xiàng yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wū guī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yī yàng zài nuó dòng 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">is moving like a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tortoise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 今天是周末，出行的人特别多，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忘记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了这</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Oh, it's weekend. May people are traveling. I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forgot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jīn tiān shì zhōu mò ，chū xing de rén tè bié duō ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wàng jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le zhè yī diǎn.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jane, wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dà gài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kě néng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hái yào 40 f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n zhōng cái néng dào nǐ jiā 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Jane. I'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>probably</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> get to home in forty minutes.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: Jane, 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大概可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还要40分钟才能到你家。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Everything is late</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄花菜都凉了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">huáng huā cài dōu liáng le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 别这么说，现在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已经在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疏通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车辆了，我预计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Don't say that. Now the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traffic police</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clearing up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the traffic. I expect it </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bié zhè me shuō ，xiàn zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiāo jǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yǐ jīng zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shū tōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chē liàng le ，wǒ yù jì</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计划赶不上变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，谁知道你又会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>什么事？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The plans don't catch up with the changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Who knows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what's going on with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qǐng dài wǒ  xiàng nǐ de fù mǔ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dào qiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo ba ，dàn shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiàng xìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jué duì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> huì ràng tā men duì nǐ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 好吧，但是我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会让他们对你有个不好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>印象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Okey, but I'm sure it will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>definitely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> make a bad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of you for them.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>yǒu gè bú hǎo de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yìn xiàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B:这是最不想看到的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拜托了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，帮我说说好话。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: This is the last thing I want to see. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, put it in a good word for me.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>zhè shì zuì bú xiǎng kàn dào de ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bài tuō le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，bāng wǒ shuō shuō hǎo huà 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Is too heavy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ross, xiàn zài yǐ jīng 8 diǎn le ，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>è</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n me hái méi dào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 对不起，Jane. 我现在还在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>半路上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呢，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>太堵了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">duì bú qǐ ，Jane. wǒ xiàn zài hái zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bàn lù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ne ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tài dǔ le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jì huá gǎn bú shàng biàn huà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，shuí zhī dào nǐ yòu huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yù dào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n me shì ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>向你的父母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>道歉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bǎo zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ huì zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiǔ diǎn zhī qián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gǎn dào nà lǐ ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我会在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九点之前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赶到那里，请代我</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'll be there </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by nine o'clock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Please </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apologize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to your parents for me.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64907,8 +66373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790361AA-FCAC-4205-9050-05F1C2BBD54E}">
   <dimension ref="C2:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -65121,6 +66587,222 @@
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="23" t="s">
         <v>2040</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C7EAA8-E39B-4427-914D-3A0F70046808}">
+  <dimension ref="C2:AE31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="4" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2046</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>2076</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="7" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="8" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AD10" s="23" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C13" s="23" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AD13" s="23" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C15" s="23" t="s">
+        <v>2059</v>
+      </c>
+      <c r="AD15" s="23" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C17" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AD17" s="23" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>2043</v>
+      </c>
+      <c r="AE18" s="23" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C23" s="23" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AD23" s="23" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D24" s="23" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AD27" s="23" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D28" s="23" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AD30" s="23" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D31" s="23" t="s">
+        <v>2073</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8785A-9E39-43A0-AFE9-EE137AA86470}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC70D69-2093-446B-B31C-3E35C370E7C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="30" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="31" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="20200614" sheetId="39" r:id="rId34"/>
     <sheet name="20200621" sheetId="40" r:id="rId35"/>
     <sheet name="20200705" sheetId="41" r:id="rId36"/>
+    <sheet name="20200712" sheetId="42" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="2083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="2146">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49970,6 +49971,1571 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> to your parents for me.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么要求吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 我会的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 那就好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: I will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: That's good.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shen me yào qiú ma ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ huì de 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nà jiù hǎo 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你好， Mary。 我们计划在下周一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>召开一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Hello, Mary. We plan to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hold a meeting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the launch of the new product next Monday.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hǎo ， Mary。 wǒ men jì huá zài xià zhōu yī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhào kāi yī gè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guān yú</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新产品发布的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。你们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做好准备工作。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xīn chǎn pǐn fā bù de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huì yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。nǐ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bù mén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tí qián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zuò hǎo zhǔn bèi gōng zuò</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B:好的，先生。都需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哪些部门参加本次会议？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes， Sir. Which departments need to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>notified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to attend this meeting?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，xiān shēng 。dōu xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tōng zhī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nǎ xiē bù mén cān jiā běn cì huì yì ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 公司的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全体员工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。因为人数比较多，所以会议地点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entire staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in our company. Because of the large number of people. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gōng sī de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quán tǐ yuán gōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。yīn wéi rén shù bǐ jiào duō ，suǒ yǐ huì yì dì diǎn</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>就定在公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的报告大厅。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The venue of the meeting is located in the lecture hall on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9th floor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the company.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jiù dìng zài gōng sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiǔ lóu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de bào gào dà tīng 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I Know. I will prepare all the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relevant meeting documents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. What are the requirements for </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我知道了。我会把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>准备好。您对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会场的布置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhī dào le 。wǒ huì bǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huì yì wén jiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhǔn bèi hǎo 。nín duì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huì chǎng de bù zhì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the meeting?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 没有，我对上次会场的布置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非常满意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: No. I was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>very satisfied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the layout of the meeting last time.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">méi yǒu ，wǒ duì shàng cì huì chǎng de bù zhì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fēi cháng mǎn yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我明白了。上次我们用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鲜花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布置好了会场，这次我们会</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I see. We decorated the meeting room with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flowers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This time, we will arrange the meeting </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ míng bái le 。shàng cì wǒ men yòng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiān huā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bù zhì hǎo le huì chǎng ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用心安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more attentively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè cì wǒ men huì gèng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yòng xīn ān pái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>believe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you can do it. Could you tell Linda to buy the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refreshments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to be served at the</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你可以做好了。你能告诉Linda买些会上供的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gòng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diǎn xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Sure. There is something </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wrong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the computer in the lecture hall.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 当然可以，报告厅里的电脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dāng rán kě yǐ ，bào gào tīng lǐ de diàn nǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chū wèn tí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我会告诉Jack让他去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修修</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你最好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一下所有的设备。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I'll tell Jack to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it. You had better </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all the equipments.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 会议的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桌椅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>够用吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>huì yì de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhuō yǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gòu yòng ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Are the enough </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tables and chairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the meeting?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 够用，我们还有很多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes, we have many </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spare things</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>department</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> needs to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prepare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ahead of time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>把， b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I do things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>è</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i,  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something be done by me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiàng xìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ kě yǐ zuò hǎo le 。nǐ néng gào sù Linda mǎi xiē huì shàng </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">美女   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mei nv   beautiful girl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuai ge  handsome boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ huì gào sù Jack ràng tā qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiū xiū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ zuì hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiǎn chá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià suǒ yǒu de shè bèi 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gòu yòng ，wǒ men hái yǒu hěn duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bèi yòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50697,7 +52263,7 @@
   <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -51966,7 +53532,7 @@
   <dimension ref="C2:AT53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E45"/>
+      <selection activeCell="Z37" sqref="Z37:AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -52623,8 +54189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="C2:AT50"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -66600,8 +68166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C7EAA8-E39B-4427-914D-3A0F70046808}">
   <dimension ref="C2:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -66803,6 +68369,310 @@
     <row r="31" spans="3:31" x14ac:dyDescent="0.35">
       <c r="D31" s="23" t="s">
         <v>2073</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C368B9AF-0023-45BE-87C1-B1305A82AB35}">
+  <dimension ref="C2:AE47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="4" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AE5" s="23" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D6" s="23" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="7" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="8" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C8" s="23" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AD8" s="23" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>2101</v>
+      </c>
+      <c r="AD10" s="23" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="AE11" s="23" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AD14" s="23" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AE15" s="23" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>2111</v>
+      </c>
+      <c r="AD18" s="23" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C20" s="23" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AD20" s="23" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AE21" s="23" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2121</v>
+      </c>
+      <c r="AD24" s="23" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AE25" s="23" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>2124</v>
+      </c>
+      <c r="AD27" s="23" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D28" s="23" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AD29" s="23" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D30" s="23" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>2085</v>
+      </c>
+      <c r="AD31" s="23" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="33" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AD33" s="23" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="34" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="36" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C36" s="23" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AD36" s="23" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="37" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D37" s="23" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="38" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C38" s="23" t="s">
+        <v>2086</v>
+      </c>
+      <c r="AD38" s="23" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="39" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D39" s="23" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="42" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D42" s="23" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D43" s="23" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="46" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D46" s="23" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="47" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D47" s="23" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>2143</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC70D69-2093-446B-B31C-3E35C370E7C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC80DB7-FE2E-4DAE-935A-4A389C74CD8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="31" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="32" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <sheet name="20200621" sheetId="40" r:id="rId35"/>
     <sheet name="20200705" sheetId="41" r:id="rId36"/>
     <sheet name="20200712" sheetId="42" r:id="rId37"/>
+    <sheet name="20200719" sheetId="43" r:id="rId38"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="2146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="2195">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51537,6 +51538,1253 @@
       </rPr>
       <t xml:space="preserve"> de 。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 晚上好，先生，有什么需要帮忙的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您为什么觉得房间很吵呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何，我想换一个房间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后您就可以换房间了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 当然可以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 谢谢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 如果您还有什么别的需求，请告诉我们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Good evening, sir. What can I do for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why do you think the root is noisy?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to change my room.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: of couse I can.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Thank you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: if there is anything more you need, please let us know.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wú lùn rú hé ，wǒ xiǎng huàn yī gè fáng jiān 。	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rán hòu nín jiù kě yǐ huàn fáng jiān le 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dāng rán kě yǐ 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiè xiè 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我叫Jack，我住在九楼的906房间。你能给我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: My name is Jack. I live in 906 on the ninth floor. Could you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ jiào Jack，wǒ zhù zài jiǔ lóu de 906 fáng jiān 。nǐ néng gěi wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huàn gè</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>房间吗？我房间的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马桶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坏了，而且这个房间很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">room for me? The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toilet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in my room is broken, this room is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>noisy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fáng jiān ma ？wǒ fáng jiān de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mǎ tǒng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> huài le ，ér qiě zhè gè fáng jiān hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 非常抱歉，先生。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我向你道歉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我们马上处理，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I'm very sorry sir. I'd like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apologize to you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. We will attend to it right away.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fēi cháng bào qiàn ，xiān shēng 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xiàng nǐ dào qiàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，wǒ men mǎ shàng chù lǐ ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 没问题，我们会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尽快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理的。但是今天没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空房间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: No problem. We will manage it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as soon as possible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. But there is no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spare room</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> today.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">méi wèn tí ，wǒ men huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jìn kuài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chù lǐ de 。dàn shì jīn tiān méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kōng fáng jiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then you can change your room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 那样也行，你能告诉隔壁的房客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小声点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nà yàng yě x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng ，nǐ néng gào sù gé bì de fáng kè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiǎo shēng diǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: That would be fine. Could you tell the tenant next door to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stop making so much noise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我希望今晚能在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的房间里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>睡个好觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xī wàng jīn wǎn néng zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ān jìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de fáng jiān lǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shuì gè hǎo jiào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我会把它记下来，尽快给您</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ huì bǎ tā jì xià lái ，jìn kuài gěi nín </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>á</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o zhěng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǎn shàng hǎo ，xiān shēng ，yǒu shen me xū yào bāng máng de ma ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nín wéi shen me ju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dé fáng jiān hěn chǎo ne ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tenant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the next root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alaways</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>music</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and music is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Anyway</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 隔壁房间的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>房客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放音乐，而且音乐很响。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gé bì fáng jiān de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fáng kè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zǒng shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yīn yuè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě yīn yuè hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>děng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dào míng tiān ma ？míng tiān zǎo shàng yǒu yī xiē kè rén yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tuì fáng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到明天吗？明天早上有一些客人要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>退房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Could you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> till tomorrow? Some guests will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tomorrow morning. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I hope to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have a good sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quiet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> room this evening.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I'll write it down and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adjust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it for you as soon as possible.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rú guǒ nín hái yǒu shen me bié de xū qiú ，qǐng gào sù wǒ men 。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68382,8 +69630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C368B9AF-0023-45BE-87C1-B1305A82AB35}">
   <dimension ref="C2:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -68673,6 +69921,254 @@
       </c>
       <c r="F47" s="23" t="s">
         <v>2143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66D7F4-F484-4491-BF10-3C4B71474B69}">
+  <dimension ref="C2:AD37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>2169</v>
+      </c>
+      <c r="AC10" s="23" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="12" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AC14" s="23" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AD15" s="23" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AC18" s="23" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AD19" s="23" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AD20" s="23" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2176</v>
+      </c>
+      <c r="AC24" s="23" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C26" s="23" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AC26" s="23" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D27" s="23" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>2181</v>
+      </c>
+      <c r="AC30" s="23" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="D31" s="23" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AC33" s="23" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C36" s="23" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AC36" s="23" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="D37" s="23" t="s">
+        <v>2194</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC80DB7-FE2E-4DAE-935A-4A389C74CD8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4141CDB-6E5B-4AFC-846E-190CD3C0AFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="32" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="33" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,8 @@
     <sheet name="20200621" sheetId="40" r:id="rId35"/>
     <sheet name="20200705" sheetId="41" r:id="rId36"/>
     <sheet name="20200712" sheetId="42" r:id="rId37"/>
-    <sheet name="20200719" sheetId="43" r:id="rId38"/>
+    <sheet name="20200719" sheetId="44" r:id="rId38"/>
+    <sheet name="20200726" sheetId="43" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="2259">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52314,10 +52315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Change root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wǎn shàng hǎo ，xiān shēng ，yǒu shen me xū yào bāng máng de ma ？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52785,6 +52782,1471 @@
   </si>
   <si>
     <t>rú guǒ nín hái yǒu shen me bié de xū qiú ，qǐng gào sù wǒ men 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 我来了，有什么需要我帮忙的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 给你，你还想要什么吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B; 当然可以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: I'm coming, What can I do for you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>told me to buy some for the neighbor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Yes. Let me show you. Eating more organically grown vegetables is good for </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Here you are. Is there anything else you want?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Sure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nà zhēn shì hěn duō dōng xī ya ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 早上好，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有人在吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>zǎo shàng hǎo ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yǒu rén zài ma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: Good moring.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Is anybody here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我想买一些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>香蕉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，两块牛肉，一箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低脂牛奶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I want to buy some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>banana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, two pieces of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a box of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>low fat milk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xiǎng mǎi yī xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiāng jiāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，liǎng kuài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>niú ròu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，yī xiāng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dī zhī niú nǎi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2gōng jīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jī dàn hé yī xiē shū cài 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two kilos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of eggs and some vegetables.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2公斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸡蛋和一些蔬菜。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 那真是很多东西呀，我可以给你找辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购物车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ kě yǐ gěi nǐ zhǎo liàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gòu wù chē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: That's quite a lot of things. I can find a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shopping cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for you.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你人真好，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多少钱？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ rén zhēn hǎo ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>píng guǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> duō shǎo qián ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: it's very nice of you. How much are the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Two for two dollars. You can go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fresh area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Today's </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">liǎng měi yuán liǎng gè 。nǐ kě yǐ qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shēng xiān qū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kàn kàn ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jīn tiān de shū cài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bú jǐn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xīn xiān ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ér qiě</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tè jià 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 两美元两个。你可以去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生鲜区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看看，今天的蔬菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不仅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新鲜，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特价。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vegetables are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fresh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but also</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on sale.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hǎo ，nǐ men yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yǒu jī shū cài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你好，你们有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有机蔬菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丈夫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叫我买点给邻居。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: All right. Do you have any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> organically grown vegetables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? My </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>husband</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhàng fū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiào wǒ mǎi diǎn gěi lín jū 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 有啊，我带你去看看。多吃有机蔬菜对我们的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>健康</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有好处，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有机蔬菜比普通蔬菜的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>营养成分高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiàn kāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu hǎo chù, yǒu jī shū cài bǐ pǔ tōng shū cài de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yíng yǎng chéng fèn gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">more nutritious </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>than ordinary vegetables.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 是的，没错。但是他们有点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，给我一打土豆。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: yes, you are right. But they're a little </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expensive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Give me a dozen potatoes.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，méi cuò 。dàn shì tā men yǒu diǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 不了，谢谢，这些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多少钱？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: No, thank you. How much are these </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú le ，xiè xiè ，zhè xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yī gòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> duō shǎo qián ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 让我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一下，65美元。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ràng wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià ，65měi yuán 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Let me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Sixty-five dollars.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我没有带现金，我能用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信用卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支付吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ méi yǒu dài xiàn jīn ，wǒ néng yòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xìn yòng kǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhī fù ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; I have no cash with me. Can I  pay by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ lái le ，yǒu shen me xū yào wǒ bāng máng de ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>甜 ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>á</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n sweet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micrometer  千分尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家   jia   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">husband </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yǒu ā ，wǒ dài nǐ qù kàn kàn. duō chī yǒu jī shū cài duì wǒ men de </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gěi wǒ yī dá tǔ dòu 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gěi nǐ ，nǐ hái xiǎng yào shen me ma ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">计算机 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69931,11 +71393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66D7F4-F484-4491-BF10-3C4B71474B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF62A2C-3040-4BD3-8489-D3C754E2C9EE}">
   <dimension ref="C2:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -69960,7 +71422,7 @@
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D3" s="30" t="s">
-        <v>2183</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.35">
@@ -69973,7 +71435,7 @@
     </row>
     <row r="5" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D5" s="23" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="6" spans="3:30" x14ac:dyDescent="0.35">
@@ -70025,15 +71487,15 @@
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D13" s="23" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="14" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C14" s="23" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="AC14" s="23" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="15" spans="3:30" x14ac:dyDescent="0.35">
@@ -70046,7 +71508,7 @@
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D16" s="23" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="17" spans="3:30" x14ac:dyDescent="0.35">
@@ -70064,10 +71526,10 @@
     </row>
     <row r="19" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D19" s="23" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD19" s="23" t="s">
         <v>2190</v>
-      </c>
-      <c r="AD19" s="23" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="20" spans="3:30" x14ac:dyDescent="0.35">
@@ -70085,7 +71547,7 @@
     </row>
     <row r="22" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D22" s="23" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="23" spans="3:30" x14ac:dyDescent="0.35">
@@ -70124,7 +71586,7 @@
         <v>2179</v>
       </c>
       <c r="AC28" s="23" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="29" spans="3:30" x14ac:dyDescent="0.35">
@@ -70137,7 +71599,7 @@
         <v>2181</v>
       </c>
       <c r="AC30" s="23" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="31" spans="3:30" x14ac:dyDescent="0.35">
@@ -70168,7 +71630,330 @@
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.35">
       <c r="D37" s="23" t="s">
-        <v>2194</v>
+        <v>2193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66D7F4-F484-4491-BF10-3C4B71474B69}">
+  <dimension ref="C2:Y53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2205</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>2196</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C8" s="23" t="s">
+        <v>2208</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2213</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C12" s="23" t="s">
+        <v>2214</v>
+      </c>
+      <c r="X12" s="23" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C15" s="23" t="s">
+        <v>2217</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C17" s="23" t="s">
+        <v>2223</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>2224</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>2227</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2226</v>
+      </c>
+      <c r="Y22" s="23" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2230</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D27" s="23" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>2234</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D30" s="23" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>2197</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C34" s="23" t="s">
+        <v>2237</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C37" s="23" t="s">
+        <v>2240</v>
+      </c>
+      <c r="X37" s="23" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D38" s="23" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C40" s="23" t="s">
+        <v>2243</v>
+      </c>
+      <c r="X40" s="23" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D41" s="23" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C43" s="23" t="s">
+        <v>2198</v>
+      </c>
+      <c r="X43" s="23" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D44" s="23" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C47" s="23" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C48" s="23" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="23" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C50" s="23" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C51" s="23" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C52" s="23" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C53" s="23" t="s">
+        <v>2258</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4141CDB-6E5B-4AFC-846E-190CD3C0AFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F7596-F770-4925-9ED9-267855D4F3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="33" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="34" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
     <sheet name="20200712" sheetId="42" r:id="rId37"/>
     <sheet name="20200719" sheetId="44" r:id="rId38"/>
     <sheet name="20200726" sheetId="43" r:id="rId39"/>
+    <sheet name="20200802" sheetId="45" r:id="rId40"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="2259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="2317">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54247,6 +54248,1534 @@
   </si>
   <si>
     <t xml:space="preserve">计算机 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样才可以充分利用你的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你未来的工作计划是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 为什么呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 好吧，我还有很多需要向你学习的地方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahead of time. Only in this way, can you make the best use of your time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work plan in the future?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: All right, I still have a lot to learn from you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zài jīn hòu de gōng zuò zhōng ，nǐ zuì hǎo tí qián zuò hǎo </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ wèi lái de gōng zuò jì huá shì sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n me ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hǎo ba ，wǒ hái yǒu hěn duō xū yào xiàng nǐ xué xí de dì fāng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hǎo Jim, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gōng xǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ chéng gōng zhuǎn chéng</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Hello, Jim. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Congratulations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on your success</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhèng shì yuán gōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: 你好Jim, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恭喜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你成功转成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正式员工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in becoming a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regular employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>价值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 在今后的工作中，你最好提前做好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工作计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: In the future work, you'd better make a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>work plan</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gōng zuò jì hu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, zhè yàng cái kě yǐ chōng fèn lì yòng nǐ de shí jiān 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 是的，没错。工作计划对每个人都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必不可少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes, you are right. The work program is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>essential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to everyone. What is your</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，méi cuò 。gōng zuò jì huá duì měi gè rén dōu shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bì bú kě shǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 很好的一个问题，我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业知识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很难取得任何进展，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: Good question. It's hard to make any progress in my</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> professional knowledge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hěn hǎo de yī gè wèn tí ，wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhuān yè zhī shí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hěn nán qǔ dé </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gèng duō de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shí jì jīng yàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I plan to gain more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>practical experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> basic positions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我计划在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基础岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上获得更多的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际经验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rèn hé jìn zhǎn, wǒ jì huá zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jī chǔ gǎng wèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shàng huò dé </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 那很不错，我也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缺少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际经验，这也是我后期需要</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nà hěn bú cuò ，wǒ yě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quē shǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shí jì jīng yàn ，zhè yě shì </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的地方。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: This is nice plan. I also</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> practical experience, this is also what I need to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improve</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ hòu qī xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tí shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de dì fāng </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dāng wǒ yǒu le hěn duō de jīng yàn ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xī wàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bèi </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 当我有了很多的经验，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>希望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理职位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: When I have a lot of experience, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>management position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>è</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n me ne ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>yīn wéi guǎn lǐ gǎng wèi gěi wǒ gèng duō de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zé rèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 因为管理岗位给我更多的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并且我能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>培训</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>职员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Because the management position gives me more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>responsibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bìng qiě wǒ néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>péi xùn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xīn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhí yuán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: You are also very good. You become a full member in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a short time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yě hěn bú cuò ，zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hěn duǎn de shí jiān nèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiù zhuǎn zhèng le 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你也很不错，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很短的时间内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就转正了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiè xiè ，wǒ yī dìng huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nǔ lì gōng zuò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 谢谢，我一定会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>努力工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，为公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Thanks, I'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>work hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the company.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wéi gōng sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuàng zào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gèng duō de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jià zhí</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin nian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qian nian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qu nian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018           2019        2020           2021        2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ming nian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hou nian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tí shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dào yī gè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guǎn lǐ zhí wèi</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63132,8 +64661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="C3:AT72"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -71644,8 +73173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66D7F4-F484-4491-BF10-3C4B71474B69}">
   <dimension ref="C2:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -72730,6 +74259,296 @@
     <row r="34" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730FC07-3E64-4F3F-B09E-34C2383477FC}">
+  <dimension ref="C2:W46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="35" width="2.640625" style="23"/>
+    <col min="36" max="36" width="2.640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="2.640625" style="23"/>
+    <col min="39" max="39" width="2.640625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2274</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2271</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D6" s="23" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C7" s="23" t="s">
+        <v>2307</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C11" s="23" t="s">
+        <v>2277</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2260</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C15" s="23" t="s">
+        <v>2280</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2261</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C19" s="23" t="s">
+        <v>2283</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2288</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2290</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2292</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D27" s="23" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>2296</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D30" s="23" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>2262</v>
+      </c>
+      <c r="V31" s="23" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C34" s="23" t="s">
+        <v>2300</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="D36" s="23" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C37" s="23" t="s">
+        <v>2263</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="D38" s="23" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C40" s="23" t="s">
+        <v>2305</v>
+      </c>
+      <c r="V40" s="23" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="D41" s="23" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C45" s="23" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C46" s="23" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>2312</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>2310</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>2314</v>
+      </c>
+      <c r="Q46" s="23" t="s">
+        <v>2315</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F7596-F770-4925-9ED9-267855D4F3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E613462-780F-4612-9AC0-3D7429722C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="34" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="35" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <sheet name="20200719" sheetId="44" r:id="rId38"/>
     <sheet name="20200726" sheetId="43" r:id="rId39"/>
     <sheet name="20200802" sheetId="45" r:id="rId40"/>
+    <sheet name="20200809" sheetId="46" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="2317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="2367">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55775,6 +55776,1553 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> guǎn lǐ zhí wèi</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 你很厉害啊，这个培训很多人都想参加，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 非常感谢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: You are very good. A lot of people wanted to take part in this training.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involved in several projects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be handed over to her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Thank you very much.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ hěn lì hài ā ，zhè gè péi xùn hěn duō rén dōu xiǎng cān jiā ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yě cān yǔ le jǐ gè xiàng mù 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fēi cháng gǎn xiè 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 是的，我要去巴黎参加一次很重要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>培训</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，wǒ yào qù bā lí cān jiā yī cì hěn zhòng yào de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>péi xùn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: yes， I must go to Paris for an important </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only you passed the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>examination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有你通过了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>考核.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zuì hòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhī yǒu nǐ tōng guò le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kǎo hé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我是真的特别想去，为了通过考核，也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付出了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: I really want to go there. In order to pass the examination,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I also made great </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很多的努力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功夫不负有心人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hěn duō de nǔ lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gōng fū bú fù yǒu xīn rén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efforts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Everything comes to him what waits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 那是你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，你要去巴黎多久？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: You </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deserve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it. How long will you be in Paris?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nà shì nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yīng dé de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ yào qù bā lí duō jiǔ ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 大概半个月，我想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这次出差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的机会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: About half a month. I'd like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take advantage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of this business trip to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop by</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: Wow, it sounds great. Who will</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> take your place</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the business trip?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wa ，tīng qǐ lái bú cuò 。nǐ chū ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>āi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qī jiān shuí lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiē tì nǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de zhí wèi ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 哇，听起来不错。你出差期间谁来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接替你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的职位？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: Mary来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我的工作，她已经过了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实习期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也参与了几个项目。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Mary will be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in charge of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> my work. She have passed her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>internship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and has been</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mary lái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fù zé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wǒ de gōng zuò ，tā yǐ jīng guò le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shí xí qī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: Mary的工作能力是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有目共睹的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。你的工作交给她，我也比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ de gōng zuò jiāo gěi tā ，wǒ yě bǐ jiào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fàng xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 没错，她做这份工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: Yes, you're right. She</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has no problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> doing the job.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">méi cuò ，tā zuò zhè fèn gōng zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>méi yǒu wèn tí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我希望你能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旅途愉快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ xī wàng nǐ néng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lǚ tú yú kuài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I hope you will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have a good trip</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你好，Nancy。我听说你要去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>巴黎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; Hello, Nancy, I hear you're going to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>business trip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hǎo ，Nancy。wǒ tīng shuō nǐ yào qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bā lí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chū ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ shì zhēn de tè bié xiǎng qù ，w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>è</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i le tōng guò kǎo hé ，yě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fù chū le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dà gài bàn gè yuè ，wǒ xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lì yòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhè cì chū chai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de jī huì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shùn biàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qù </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>趟埃菲尔铁塔。那是我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小时候的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>梦想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Eiffel Tower, it was my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">childhood </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tàng āi fēi ěr tiě tǎ 。nà shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">xiǎo shí hòu de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mèng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mary de gōng zuò néng lì shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yǒu mù gòng dǔ de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Mary's ability to work is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>obvious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to all. I'm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more reassured</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that your job will</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73173,7 +74721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66D7F4-F484-4491-BF10-3C4B71474B69}">
   <dimension ref="C2:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
@@ -74272,8 +75820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730FC07-3E64-4F3F-B09E-34C2383477FC}">
   <dimension ref="C2:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT28" sqref="AT28:AU28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -74549,6 +76097,257 @@
       </c>
       <c r="Q46" s="23" t="s">
         <v>2315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4C166-06FC-4512-952F-3AA4BF3842BA}">
+  <dimension ref="C2:Z40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="36" width="2.640625" style="23"/>
+    <col min="37" max="37" width="2.640625" style="23" customWidth="1"/>
+    <col min="38" max="39" width="2.640625" style="23"/>
+    <col min="40" max="40" width="2.640625" style="23" customWidth="1"/>
+    <col min="41" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>2327</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C9" s="23" t="s">
+        <v>2318</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>2331</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C13" s="23" t="s">
+        <v>2333</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C17" s="23" t="s">
+        <v>2338</v>
+      </c>
+      <c r="Y17" s="23" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C20" s="23" t="s">
+        <v>2341</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>2362</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2345</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>2346</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D28" s="23" t="s">
+        <v>2348</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D31" s="23" t="s">
+        <v>2365</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>2351</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C36" s="23" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Y36" s="23" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D37" s="23" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C39" s="23" t="s">
+        <v>2319</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D40" s="23" t="s">
+        <v>2326</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E613462-780F-4612-9AC0-3D7429722C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB163BA-219F-4E29-B317-FE11A30B33C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="35" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="36" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <sheet name="20200726" sheetId="43" r:id="rId39"/>
     <sheet name="20200802" sheetId="45" r:id="rId40"/>
     <sheet name="20200809" sheetId="46" r:id="rId41"/>
+    <sheet name="20200816" sheetId="47" r:id="rId42"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="2367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="2414">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57323,6 +57324,1100 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> that your job will</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 这个派对真的很不错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较搭配，希望我看起来就像自我感觉的那样好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起喝一杯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm sure you'll have a good time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: OK!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: This is a really wonderful party.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>your birthday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhè gè pài duì zhēn de hěn bú cuò 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiè xiè 。nǐ néng zhè me shuō zhēn shì tài hǎo le 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yī qǐ hē yī bēi 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生日快乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！这是给你的，brian。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shēng rì kuài lè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ！zhè shì gěi nǐ de ，brian。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Happy birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! This is for you,Brian.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我真高兴，你还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我的生日。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhēn gāo xìng ，nǐ hái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jì dé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ de shēng rì 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三生有幸 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sān shēng yǒu xìng </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，nǐ zǒng shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dà jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huān yíng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ jīn tiān kàn shàng qù hěn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> piāo liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes. You are always </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>popular</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with everyone. And you look very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pretty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> today.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 是的，你总是很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欢迎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。你今天看上去很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>漂亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉鱼落雁，闭月羞花。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chén yú luò yàn ，bì yuè xiū huā 。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Thanks. That's kind of you to say so. I hope my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necklace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> goes with my </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 谢谢。你能这么说真是太好了。我希望我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>衣服</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and they both make me looks good as I feel.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wǒ xī wàng wǒ de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xiàng liàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yī fú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bǐ jiào dā pèi ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 你看上去不错，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>光芒四射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: You look great. You're </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>absolutily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glowing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ kàn shàng qù bú cuò ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">jué duì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guāng máng sì shè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men yīng gāi wéi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qìng zhù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de shēng rì</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快进来，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都在，我肯定你会玩的很高兴的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I'm so happy you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remembered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Please come in. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Everyone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is here.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>kuài jìn lái ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dà jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dōu zài ，wǒ kěn dìng nǐ huì wán de hěn gāo xìng de 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: Brian，能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有幸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和你跳个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Brian, May I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have the pleasure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with you?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Brian，néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yǒu xìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hé nǐ tiào gè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她有沉鱼落雁，闭月羞花之姿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tā yǒu chén yú luò yàn ，bì yuè xiū huā zhī zī 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xī wàng wǒ kàn qǐ lái jiù xiàng zì wǒ gǎn ju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de nà yàng hǎo 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relatively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiang dui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 谢谢，这个派对真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有趣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我们应该为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>庆祝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的生日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Thanks. This is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Party. We should have a drink together to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>celebrate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiè xiè ，zhè gè pài duì zhēn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yǒu qù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76110,8 +77205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4C166-06FC-4512-952F-3AA4BF3842BA}">
   <dimension ref="C2:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -76348,6 +77443,256 @@
     <row r="40" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D40" s="23" t="s">
         <v>2326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DB7238-2225-4047-819A-A375E53021ED}">
+  <dimension ref="C2:AB47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="36" width="2.640625" style="23"/>
+    <col min="37" max="37" width="2.640625" style="23" customWidth="1"/>
+    <col min="38" max="39" width="2.640625" style="23"/>
+    <col min="40" max="40" width="2.640625" style="23" customWidth="1"/>
+    <col min="41" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="4" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>2381</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>2399</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>2402</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C13" s="23" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C16" s="23" t="s">
+        <v>2368</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C19" s="23" t="s">
+        <v>2388</v>
+      </c>
+      <c r="AA19" s="23" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C22" s="23" t="s">
+        <v>2392</v>
+      </c>
+      <c r="AA22" s="23" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2369</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D24" s="23" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D28" s="23" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AA30" s="23" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D31" s="23" t="s">
+        <v>2370</v>
+      </c>
+      <c r="AB31" s="23" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D33" s="23" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C38" s="23" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C40" s="23" t="s">
+        <v>2389</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C42" s="23" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C43" s="23" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C46" s="23" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C47" s="23" t="s">
+        <v>2410</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB163BA-219F-4E29-B317-FE11A30B33C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648EDE30-15E8-4FC6-B662-30EAC3076512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="36" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="37" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,7 @@
     <sheet name="20200802" sheetId="45" r:id="rId40"/>
     <sheet name="20200809" sheetId="46" r:id="rId41"/>
     <sheet name="20200816" sheetId="47" r:id="rId42"/>
+    <sheet name="20200823" sheetId="48" r:id="rId43"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="2414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="2456">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58419,6 +58420,778 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 回转。。。第三条街右转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 走到底，太感谢你了，我真的非常感激。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 很开心能帮上忙，祝你有美好的一天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Do a U-turn and take the third street on the right. It's called </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: U turn. ..third on the right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge Street.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: All the way to the end. Thanks a million, I really appreciate it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Glad to help. Have a great day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jiē zhe zài dì sān tiáo jiē kǒu yòu zhuǎn ，nà tiáo jiē jiào zuò Gray jiē </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huí zhuǎn 。。。dì sān tiáo jiē yòu zhuǎn 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zǒu dào dǐ ，tài gǎn xiè nǐ le ，wǒ zhēn de fēi cháng gǎn jī 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hěn kāi xīn néng bāng shàng máng ，zhù nǐ yǒu měi hǎo de yī tiān 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">投石问路： </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú hǎo yì sī ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mí lù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Excuse me, I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Could you point me in the </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>má fán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ gào sù wǒ qù dà qiáo jiē de lù ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 不好意思，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迷路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>麻烦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你告诉我去大桥街的路吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Sure, It's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>too</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from here. In fact, it's just</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 没问题，那里离这里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。事实上就在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>附近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>around</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the corner.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>méi wèn tí ，nà lǐ lí zhè lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bú yuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。shì shí shàng jiù zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fù jìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你真是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>救命恩人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我已经开车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了很久了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ zhēn shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiù mìng ēn rén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ yǐ jīng kāi chē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le hěn jiǔ le </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: You're a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lifesaver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. I've been driving in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>circles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for ages.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ gāi zài jǐ tiáo jiē qián jiù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zuǒ zhuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。nǐ xiān huí zhuǎn ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: You should've made a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left-hand turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a few streets back.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 你该在几条街前就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。你先回转，接着在第三条接口右转，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yǒu gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiā yóu zhàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiù zài zhuǎn jiǎo chù ，hěn hǎo zhǎo de 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>那条街叫做Gray街，有个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加油站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就在转角处，很好找的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Gary street. There's a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gas station</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the corner, you can't miss it.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 沿着Gray街一直走下去，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>走到底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就是大桥街。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Make your way along Gary street all the way </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to the end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It ends at </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tóu shí wèn lù </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction of Bridge Street, please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左， zuo </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">you </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>yán zhe Gray jiē yī zhí zǒu xià qù ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zǒu dào dǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiù shì dà qiáo jiē 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人皆知.“司马昭之心，路人皆知”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77456,8 +78229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DB7238-2225-4047-819A-A375E53021ED}">
   <dimension ref="C2:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -77693,6 +78466,217 @@
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C47" s="23" t="s">
         <v>2410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57975C92-21AA-4F03-8CF4-A8EA6AD61109}">
+  <dimension ref="C2:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="36" width="2.640625" style="23"/>
+    <col min="37" max="37" width="2.640625" style="23" customWidth="1"/>
+    <col min="38" max="39" width="2.640625" style="23"/>
+    <col min="40" max="40" width="2.640625" style="23" customWidth="1"/>
+    <col min="41" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D3" s="30" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2431</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2428</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D6" s="23" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C7" s="23" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>2436</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C13" s="23" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>2415</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2454</v>
+      </c>
+      <c r="AA22" s="23" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2416</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D28" s="23" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C32" s="23" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>2452</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="23" t="s">
+        <v>2455</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648EDE30-15E8-4FC6-B662-30EAC3076512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26522E44-8A42-46DA-9A69-B145F41BC88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="37" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="38" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
     <sheet name="20200809" sheetId="46" r:id="rId41"/>
     <sheet name="20200816" sheetId="47" r:id="rId42"/>
     <sheet name="20200823" sheetId="48" r:id="rId43"/>
+    <sheet name="20200830" sheetId="49" r:id="rId44"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="2456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2521">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59192,6 +59193,1147 @@
   </si>
   <si>
     <t>路人皆知.“司马昭之心，路人皆知”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Jack, 你在干什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 你知道你不应该那么做，我已经和你说过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多次了，这对你没好处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里玩一整天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 但它真的很有趣，而且我并没有觉得有什么问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不知道吗？你现在应该立刻去写作业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 我可不这么认为，你的老师之前告诉我，你这次期末考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 可是我现在只想玩这个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才能玩这个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 请在给我5分钟时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 不行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Jack, what are you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: you know, you shouldn't do that. I've told you so many times.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it's not good for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: But it was really fun and I didn't think there was anything wrong with it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of this. Don't you know. You should do your homework right now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: But that's all I want to do right now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: I said no. and I also said that you can play this only if you have done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what you should do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Please give me another five minutes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: No way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Jack, nǐ zài gàn sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n me ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ zhī dào nǐ bú yīng gāi nà me zuò ，wǒ yǐ jīng hé nǐ shuō guò</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hěn duō cì le ，zhè duì nǐ méi hǎo chù</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dàn shì wǒ hěn xǐ huān ā ，zhēn de hěn yǒu qù ，wǒ hěn xiǎng zài </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhè lǐ wán yī zhěng tiān.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ xiǎng tài duō le ，nǐ xǐ huān tā ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dàn tā zhēn de hěn yǒu qù ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ bú zhī dào ma ？nǐ xiàn zài yīng gāi lì kè qù xiě zuò yè 。	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ kě bú zhè me rèn wéi ，nǐ de lǎo shī zhī qián gào sù wǒ ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ cuò le ，wǒ xué huì le nà xiē zhī shí ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kě shì wǒ xiàn zài zhī xiǎng wán zhè gè </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ shuō le bú xing ，ér qiě wǒ zhī qián shuō guò ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qǐng zài gěi wǒ 5fèn zhōng shí jiān 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bú x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Í</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我在玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泥巴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I'm playing with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zài wán </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ní bā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 但是我很喜欢啊，真的很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有趣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我很想在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: But I love it. It's really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interesting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. I love to play it all day.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你玩这个是没有问题，但是你因为玩这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都下降了，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ wán zhè gè shì méi yǒu wèn tí, dàn shì nǐ yīn wéi wán zhè gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">chéng jì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dōu xià jiàng le</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: There's no problem with you playing this. But your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is down because</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 那个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>太无聊了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我已经把所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>知识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都学会了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: That's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. I've learned all the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>knowledge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nà gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tài wú liáo le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ yǐ jīng bǎ suǒ yǒu de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zhī shi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dōu xué huì le 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I don't think so. Your teacher told me that you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cheated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the final exam </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ zhè cì qī mò kǎo shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zuò bì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le ，zhè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shuō míng </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">which </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>means</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you don't know anything about it.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gēn běn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dōu bú huì nà xiē zhī shí 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作弊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都不会那些知识。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 你错了，我学会了那些知识，我只是不想动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脑子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计算。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: You're wrong. I've learned that knowledge. I just don't want to use my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhī shì bú xiǎng dòng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nǎo zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jì suàn 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>骗子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，赶紧停下来去写你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; You're a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Stop and write your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>homework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">piàn zǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，gǎn jǐn tíng xià lái qù xiě nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zuò yè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你想太多了，你喜欢它，并不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意味着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你能这样做。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bìng bú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yì wèi zhe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ néng zhè yàng zuò </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: You think too much. You like it doesn't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you can do it.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ér qiě wǒ bìng méi yǒu ji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dé yǒu shen me wèn tí 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我说了不行，而且我之前说过，你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把你应该做的做好</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhī yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bǎ nǐ yīng gāi zuò de zuò hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">néng wán zhè gè </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没门儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78479,7 +79621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57975C92-21AA-4F03-8CF4-A8EA6AD61109}">
   <dimension ref="C2:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
@@ -78677,6 +79819,327 @@
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="23" t="s">
         <v>2455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46A55A-007C-4655-AA87-4CA93348920E}">
+  <dimension ref="C2:X53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA53" sqref="AA53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="36" width="2.640625" style="23"/>
+    <col min="37" max="37" width="2.640625" style="23" customWidth="1"/>
+    <col min="38" max="39" width="2.640625" style="23"/>
+    <col min="40" max="40" width="2.640625" style="23" customWidth="1"/>
+    <col min="41" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2456</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C7" s="23" t="s">
+        <v>2491</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C10" s="23" t="s">
+        <v>2457</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2458</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C18" s="23" t="s">
+        <v>2513</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>2460</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2496</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2461</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D27" s="23" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>2462</v>
+      </c>
+      <c r="W31" s="23" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D33" s="23" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C36" s="23" t="s">
+        <v>2507</v>
+      </c>
+      <c r="W36" s="23" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D37" s="23" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D38" s="23" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C39" s="23" t="s">
+        <v>2510</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D40" s="23" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C42" s="23" t="s">
+        <v>2463</v>
+      </c>
+      <c r="W42" s="23" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D43" s="23" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C45" s="23" t="s">
+        <v>2517</v>
+      </c>
+      <c r="W45" s="23" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D46" s="23" t="s">
+        <v>2464</v>
+      </c>
+      <c r="X46" s="23" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D47" s="23" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D48" s="23" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C49" s="23" t="s">
+        <v>2465</v>
+      </c>
+      <c r="W49" s="23" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D50" s="23" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C52" s="23" t="s">
+        <v>2466</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>2520</v>
+      </c>
+      <c r="W52" s="23" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="D53" s="23" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>2519</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26522E44-8A42-46DA-9A69-B145F41BC88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF7DCB5-8FDC-420B-8FE5-62EBCEB33198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="38" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="39" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <sheet name="20200816" sheetId="47" r:id="rId42"/>
     <sheet name="20200823" sheetId="48" r:id="rId43"/>
     <sheet name="20200830" sheetId="49" r:id="rId44"/>
+    <sheet name="20200906" sheetId="50" r:id="rId45"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="2569">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60334,6 +60335,1087 @@
   </si>
   <si>
     <t>没门儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 我真的很想去，但是我今天有很多家务要做，我要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我看来，家务不只是女人的事情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:谁呀？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: I really want to go, but I've got a lot of housework to do today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helps me with cooking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">man should also do housework. In my opinion, housework is not just a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B: you're right. But I'm going to finish the housework today, because there's </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Who's the visitor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: He is one of my husband's friends. We haven't seen each other for many years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do housework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A：Jenny，你在干什么？我们去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吧。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Jenny, what are you doing?let's go </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shopping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jenny，nǐ zài gàn shén me ？wǒ men qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gòu wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ba 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ zhēn de hěn xiǎng qù ，dàn shì wǒ jīn tiān yǒu hěn duō jiā wù yào zuò </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xǐ yī fú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dǎ sǎo fáng jiān 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>洗衣服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，打扫房间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'll do the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>laundry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and clean the house.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: isn't your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>husband</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at home? You should share the housework with </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丈夫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不在家吗？你应该和他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家务。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">him </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fifty fifty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhī dào ，dàn shì wǒ zhàng fū </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cóng bú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zuò jiā wù ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我知道，但是我丈夫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做家务，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有时候帮我做饭。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nǚ ér</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu shí hòu bāng wǒ zuò fàn</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I know, But my husband </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does housework. My </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daughter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sometimes</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nán rén yě yīng gāi zuò jiā wù 。zài wǒ kàn lái ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiā wù bú zhī shì nǚ rén de shì qíng 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woman's business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 你应该改变想法了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>男女平等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，男人也应该做家务。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: You should change your mind. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equality lies between man and woman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ yīng gāi gǎi biàn xiǎng fǎ le ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nán nǚ píng děng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ shuō de duì ，dàn shì wǒ jīn tiān yào bǎ jiā wù zuò wán ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>yīn wéi xià wǔ yǒu rén lái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bài fǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 你说的对，但是我今天要把家务做完，因为下午有人来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拜访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coming in the afternoon.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuí ya ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ zhàng fū de yī gè péng yǒu ，wǒ men yǐ jīng hěn </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">duō nián méi yǒu jiàn miàn le ，tā jīn tiān </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huí guó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我丈夫的一个朋友，我们已经很多年没有见面了，他今天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and he's going to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>come back from abroad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> today.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>既然这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你就忙吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下周在约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jì rán zhè yàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nǐ jiù máng ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。wǒ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xià zhōu zài yuē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in that case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you do what you do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, we'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make another appointment next week</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一言为定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我正想买几件衣服。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yī yán wéi dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ zhèng xiǎng mǎi jǐ jiàn yī fú 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That's settled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, I just would like to buy some clothes.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhàng fū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bú zài jiā ma ？nǐ yīng gāi hé tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>píng f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jiā wù.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常 jīng cháng  often</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君子一言，驷马难追。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79832,7 +80914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46A55A-007C-4655-AA87-4CA93348920E}">
   <dimension ref="C2:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
@@ -80140,6 +81222,248 @@
       </c>
       <c r="G53" s="23" t="s">
         <v>2519</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA77C218-576D-4078-8719-F50CF20246C6}">
+  <dimension ref="C2:AA39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="36" width="2.640625" style="23"/>
+    <col min="37" max="37" width="2.640625" style="23" customWidth="1"/>
+    <col min="38" max="39" width="2.640625" style="23"/>
+    <col min="40" max="40" width="2.640625" style="23" customWidth="1"/>
+    <col min="41" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C3" s="30" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2531</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C7" s="23" t="s">
+        <v>2521</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C11" s="23" t="s">
+        <v>2539</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>2542</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>2541</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D16" s="23" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C17" s="23" t="s">
+        <v>2548</v>
+      </c>
+      <c r="Z17" s="23" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D18" s="23" t="s">
+        <v>2522</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D19" s="23" t="s">
+        <v>2550</v>
+      </c>
+      <c r="AA19" s="23" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C22" s="23" t="s">
+        <v>2553</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2551</v>
+      </c>
+      <c r="AA23" s="23" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D24" s="23" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C25" s="23" t="s">
+        <v>2523</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>2558</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2556</v>
+      </c>
+      <c r="AA29" s="23" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D30" s="23" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>2560</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C34" s="23" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Z34" s="23" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C38" s="23" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C39" s="23" t="s">
+        <v>2568</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF7DCB5-8FDC-420B-8FE5-62EBCEB33198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7822C2-5DB0-498C-93F4-10821CB5783A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="39" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="40" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
     <sheet name="20200823" sheetId="48" r:id="rId43"/>
     <sheet name="20200830" sheetId="49" r:id="rId44"/>
     <sheet name="20200906" sheetId="50" r:id="rId45"/>
+    <sheet name="20200913" sheetId="51" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="2616">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61417,6 +61418,1050 @@
   <si>
     <t>君子一言，驷马难追。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 怎么了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 你这句话指什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 最晚下周二，现在你们有几个人了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: What's up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like to join us?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because I am not sure if I'm going to work overtime next weekend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:  What do you mean?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So maybe we have to work overtime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: Next Tuesday at the latest. How many of you are there now?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zěn me le ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ xiǎng jiā rù ma ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yīn wéi wǒ bú què dìng xià zhōu mò wǒ shì fǒu yào jiā bān</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ zhè jù huà zhǐ shí me yì sī?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suǒ yǐ wǒ men kě néng yào jiā bān 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuì wǎn xià zhōu èr ，xiàn zài nǐ men yǒu jǐ gè rén le ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rú guǒ jiā shàng nǐ jiù shì 6gè le ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 下周你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xià zhōu nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yǒu kōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: Are you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> free </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next weekend?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 下周末我们要去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户外探险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你想加入吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xià zhōu mò wǒ men yào qù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hù wài tàn xiǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: We're going on an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outdoor expedition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> next weekend. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 这可是我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期盼已久</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的活动啊，但是我还是不能给你</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>zhè kě shì wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qī pàn yǐ jiǔ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de huó dòng ā ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明确的答复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为我不确定下周末我是否要加班。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: it's a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long-awaited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> activity. But I can't give you a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear answer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dàn shì wǒ hái shì bú néng gěi nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>míng què de dá fù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 是这样的，我们公司接了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大的订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，最近所有的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì zhè yàng de ，wǒ men gōng sī jiē le yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dà de dìng dān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人员都在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忙于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>此事，所以我们可能要加班。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Well, we got a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. All the people </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are busy with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this recently,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zuì jìn suǒ yǒu de rén yuán dōu zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>máng yú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cǐ shì ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 好吧，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工作重要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那你什么时候能确定呢？我们正在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hǎo ba ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gōng zuò zhòng yào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，nà nǐ shí me shí hòu </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统计人数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Well, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job matters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When can you fix the time? We are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counting the numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>néng què dìng ne ？wǒ men zhèng zài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tǒng jì rén shù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jì huá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yāo qǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shí gè rén 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Six if you're in. We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ten persons in.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 如果加上你就是6个了，我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邀请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>十个人。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一直期盼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能有一次这样的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我真的不想</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>been longing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like this. I really don't want to </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yī zhí qī pàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> néng yǒu yī cì zhè yàng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tǐ yàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miss it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> . Thank you for telling me.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，感谢你告诉我这件事。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhēn de bú xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cuò guò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，gǎn xiè nǐ gào sù wǒ zhè jiàn shì </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor expedition</t>
   </si>
 </sst>
 </file>
@@ -81235,7 +82280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA77C218-576D-4078-8719-F50CF20246C6}">
   <dimension ref="C2:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
@@ -81464,6 +82509,249 @@
     <row r="39" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C39" s="23" t="s">
         <v>2568</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A005D37-FD6D-4379-A669-A0870383C70E}">
+  <dimension ref="C2:Y37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="36" width="2.640625" style="23"/>
+    <col min="37" max="37" width="2.640625" style="23" customWidth="1"/>
+    <col min="38" max="39" width="2.640625" style="23"/>
+    <col min="40" max="40" width="2.640625" style="23" customWidth="1"/>
+    <col min="41" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="s">
+        <v>2585</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>2569</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C8" s="23" t="s">
+        <v>2588</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>2589</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D10" s="23" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C11" s="23" t="s">
+        <v>2591</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D12" s="23" t="s">
+        <v>2593</v>
+      </c>
+      <c r="Y12" s="23" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D15" s="23" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C16" s="23" t="s">
+        <v>2570</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C19" s="23" t="s">
+        <v>2596</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2598</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D22" s="23" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>2601</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D27" s="23" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>2571</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>2608</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D32" s="23" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D33" s="23" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C34" s="23" t="s">
+        <v>2609</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D35" s="23" t="s">
+        <v>2613</v>
+      </c>
+      <c r="Y35" s="23" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D36" s="23" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D37" s="23" t="s">
+        <v>2614</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7822C2-5DB0-498C-93F4-10821CB5783A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1797DC5A-D6B9-4FD8-ABBC-88BFD5980CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="40" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <sheet name="20200823" sheetId="48" r:id="rId43"/>
     <sheet name="20200830" sheetId="49" r:id="rId44"/>
     <sheet name="20200906" sheetId="50" r:id="rId45"/>
-    <sheet name="20200913" sheetId="51" r:id="rId46"/>
+    <sheet name="20200926" sheetId="51" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="2616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="2616">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61436,10 +61436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Would you like to join us?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Because I am not sure if I'm going to work overtime next weekend.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61460,18 +61456,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nǐ xiǎng jiā rù ma ？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yīn wéi wǒ bú què dìng xià zhōu mò wǒ shì fǒu yào jiā bān</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nǐ zhè jù huà zhǐ shí me yì sī?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suǒ yǐ wǒ men kě néng yào jiā bān 。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61512,6 +61500,851 @@
   </si>
   <si>
     <r>
+      <t>xià zhōu mò wǒ men yào qù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hù wài tàn xiǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: We're going on an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outdoor expedition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> next weekend. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 这可是我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期盼已久</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的活动啊，但是我还是不能给你</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>zhè kě shì wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qī pàn yǐ jiǔ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de huó dòng ā ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明确的答复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为我不确定下周末我是否要加班。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: it's a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long-awaited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> activity. But I can't give you a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear answer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dàn shì wǒ hái shì bú néng gěi nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>míng què de dá fù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 是这样的，我们公司接了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大的订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，最近所有的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì zhè yàng de ，wǒ men gōng sī jiē le yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dà de dìng dān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人员都在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忙于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>此事，所以我们可能要加班。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Well, we got a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. All the people </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are busy with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this recently,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zuì jìn suǒ yǒu de rén yuán dōu zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>máng yú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cǐ shì ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 好吧，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工作重要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那你什么时候能确定呢？我们正在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统计人数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Well, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job matters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When can you fix the time? We are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counting the numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>néng què dìng ne ？wǒ men zhèng zài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tǒng jì rén shù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jì huá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yāo qǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shí gè rén 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Six if you're in. We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ten persons in.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 如果加上你就是6个了，我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邀请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>十个人。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一直期盼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能有一次这样的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我真的不想</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>been longing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like this. I really don't want to </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yī zhí qī pàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> néng yǒu yī cì zhè yàng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tǐ yàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miss it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> . Thank you for telling me.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，感谢你告诉我这件事。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhēn de bú xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cuò guò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，gǎn xiè nǐ gào sù wǒ zhè jiàn shì </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor expedition</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">xià zhōu nǐ </t>
     </r>
     <r>
@@ -61523,7 +62356,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>yǒu kōng</t>
+      <t>yǒu k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
     </r>
     <r>
       <rPr>
@@ -61560,7 +62414,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>next weekend?</t>
+      <t>next week?</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61587,119 +62441,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，你想加入吗？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xià zhōu mò wǒ men yào qù</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hù wài tàn xiǎn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A: We're going on an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>outdoor expedition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> next weekend. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B: 这可是我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>期盼已久</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的活动啊，但是我还是不能给你</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>zhè kě shì wǒ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> qī pàn yǐ jiǔ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>de huó dòng ā ，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>，你想</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -61709,44 +62452,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>明确的答复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，因为我不确定下周末我是否要加班。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B: it's a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>long-awaited</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> activity. But I can't give you a </t>
+      <t>加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ xiǎng </t>
     </r>
     <r>
       <rPr>
@@ -61757,23 +62479,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>clear answer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dàn shì wǒ hái shì bú néng gěi nǐ </t>
+      <t>jiā rù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Would you like to</t>
     </r>
     <r>
       <rPr>
@@ -61784,201 +62506,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>míng què de dá fù</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B: 是这样的，我们公司接了一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大的订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，最近所有的</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">shì zhè yàng de ，wǒ men gōng sī jiē le yī gè </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dà de dìng dān</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>人员都在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>忙于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>此事，所以我们可能要加班。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B: Well, we got a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>big order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. All the people </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>are busy with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> this recently,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">zuì jìn suǒ yǒu de rén yuán dōu zài </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>máng yú</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cǐ shì ，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A: 好吧，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>工作重要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，那你什么时候能确定呢？我们正在</t>
-    </r>
+      <t xml:space="preserve"> join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> us?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nǐ zhè jù huà zhǐ shen me yì sī?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62004,464 +62547,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ，nà nǐ shí me shí hòu </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>统计人数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A: Well, the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>job matters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When can you fix the time? We are </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>counting the numbers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>néng què dìng ne ？wǒ men zhèng zài</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tǒng jì rén shù </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wǒ men </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jì huá</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yāo qǐng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> shí gè rén 。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A: Six if you're in. We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ten persons in.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A: 如果加上你就是6个了，我们</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>计划</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>邀请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>十个人。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B: 我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一直期盼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>能有一次这样的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>体验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，我真的不想</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B: I've </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>been longing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>experience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> like this. I really don't want to </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wǒ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yī zhí qī pàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> néng yǒu yī cì zhè yàng de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tǐ yàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>miss it</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> . Thank you for telling me.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>错过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，感谢你告诉我这件事。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wǒ zhēn de bú xiǎng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cuò guò</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ，gǎn xiè nǐ gào sù wǒ zhè jiàn shì </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outdoor expedition</t>
+      <t xml:space="preserve"> ，nà nǐ shen me shí hòu </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82522,8 +82610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A005D37-FD6D-4379-A669-A0870383C70E}">
   <dimension ref="C2:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -82549,20 +82637,20 @@
     <row r="3" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C3" s="30"/>
       <c r="D3" s="30" t="s">
-        <v>2615</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C4" s="23" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>2587</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D5" s="23" t="s">
-        <v>2586</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.35">
@@ -82575,59 +82663,62 @@
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D7" s="23" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C8" s="23" t="s">
-        <v>2588</v>
+        <v>2611</v>
       </c>
       <c r="X8" s="23" t="s">
-        <v>2590</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D9" s="23" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>2573</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D10" s="23" t="s">
-        <v>2579</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C11" s="23" t="s">
-        <v>2591</v>
+        <v>2585</v>
       </c>
       <c r="X11" s="23" t="s">
-        <v>2594</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D12" s="23" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D13" s="23" t="s">
-        <v>2592</v>
+        <v>2586</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>2519</v>
       </c>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D14" s="23" t="s">
-        <v>2595</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D15" s="23" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.35">
@@ -82635,66 +82726,66 @@
         <v>2570</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D17" s="23" t="s">
-        <v>2581</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C19" s="23" t="s">
-        <v>2596</v>
+        <v>2590</v>
       </c>
       <c r="X19" s="23" t="s">
-        <v>2599</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D20" s="23" t="s">
-        <v>2598</v>
+        <v>2592</v>
       </c>
       <c r="Y20" s="23" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D21" s="23" t="s">
-        <v>2597</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D22" s="23" t="s">
-        <v>2600</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D23" s="23" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C24" s="23" t="s">
-        <v>2601</v>
+        <v>2595</v>
       </c>
       <c r="X24" s="23" t="s">
-        <v>2604</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D25" s="23" t="s">
-        <v>2603</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D26" s="23" t="s">
-        <v>2602</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D27" s="23" t="s">
-        <v>2605</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.35">
@@ -82702,56 +82793,56 @@
         <v>2571</v>
       </c>
       <c r="X28" s="23" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D29" s="23" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C31" s="23" t="s">
-        <v>2608</v>
+        <v>2601</v>
       </c>
       <c r="X31" s="23" t="s">
-        <v>2607</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D32" s="23" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="33" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D33" s="23" t="s">
-        <v>2606</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="34" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C34" s="23" t="s">
-        <v>2609</v>
+        <v>2602</v>
       </c>
       <c r="X34" s="23" t="s">
-        <v>2610</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="35" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D35" s="23" t="s">
-        <v>2613</v>
+        <v>2606</v>
       </c>
       <c r="Y35" s="23" t="s">
-        <v>2612</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="36" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D36" s="23" t="s">
-        <v>2611</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="37" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D37" s="23" t="s">
-        <v>2614</v>
+        <v>2607</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese.xlsx
+++ b/learn_chinese.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1797DC5A-D6B9-4FD8-ABBC-88BFD5980CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903B0EC4-646B-44EA-B81D-276A8E05B155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="40" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="41" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190323" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <sheet name="20200830" sheetId="49" r:id="rId44"/>
     <sheet name="20200906" sheetId="50" r:id="rId45"/>
     <sheet name="20200926" sheetId="51" r:id="rId46"/>
+    <sheet name="20201018" sheetId="53" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="2616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="2676">
   <si>
     <t>1. Some simple chinese word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62549,6 +62550,1096 @@
       </rPr>
       <t xml:space="preserve"> ，nà nǐ shen me shí hòu </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见过之后，我就再也没见过你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 很好，就是有点忙，你最近怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 我很好，你都忙些什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 你在那儿工作多长时间了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的老板怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:为什么呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩翻了一倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 真是不一般的女人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: 是的，这就是我佩服她的原因。目前为止。我对我的公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A; 做得好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Hi, Tony. How are you doing these days?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B: I'm good. Just a little busy. How have you been?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A; I'm good, too. What's keeping you so busy?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B; Thank you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A; How long have you been working there?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do you like your boss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A; why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B: yeah, That's why I admire her. So far, I'm satisfied with everything about my </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Well done.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zài kā fēi guǎn jiàn guò zhī hòu ，wǒ jiù zài yě méi jiàn guò nǐ 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hěn hǎo ，jiù shì yǒu diǎn máng ，nǐ zuì jìn zěn me yàng ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ hěn hǎo ，nǐ dōu máng xiē shen me ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wéi shen me ne ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ràng gōng sī de yè jì fān le yī bèi。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhēn shì bú yī bān de nǚ rén。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shì de ，zhè jiù shì wǒ pèi fú tā de yuán yīn 。mù qián wéi zhǐ 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wǒ duì wǒ de gōng sī yī qiē dōu gǎn dào mǎn yì ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuò dé hǎo 。</t>
+  </si>
+  <si>
+    <r>
+      <t>A: 你好，Tony。最近怎么样？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上次我们在咖啡馆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ hǎo ，Tony。zuì jìn zěn me yàng ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zì cóng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shàng cì wǒ men </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>升职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，所以我最近一直在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写报告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shēng zhí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le ，suǒ yǐ wǒ zuì jìn yī zhí zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiě bào gào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I got </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. So I've been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>writing reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lately.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 哇，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恭喜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你啊。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; Wow, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>congratulations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wa ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gōng xǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ ā </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 五年多了，我对我的工作很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>满意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǔ nián duō le ，wǒ duì wǒ de gōng zuò hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mǎn yì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: More than five years. I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>satisfied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with my work.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jìn guǎn tā yǒu shí hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yán l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ì ，dàn shì zài gōng zuò shàng yǒu </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 尽管她有时很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>严厉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是在工作上有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>独到的眼光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B; Althong she is sometimes very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>severe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, she has a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> unique vision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for work.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dú dào de yǎn guāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ méi shen me kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bào yuàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>没什么可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抱怨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，相反我很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>佩服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>complaints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instead, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>admire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> her so much.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xiàng fǎn wǒ hěn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pèi fú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tā 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B: 她在工作上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一丝不苟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用了不到两年时间，让公司的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā zài gōng zuò shàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yī sī bú gǒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，yòng le bú dào liǎng nián shí jiān ，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B; she was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meticulous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in her work. And in less than two years she doubled the</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> company's performance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一切都感到满意，我会一直在我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上工作。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">company. I will keep working in my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ huì yī zhí zài wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gǎng wèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shàng gōng zuò 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Haven't seen you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>since</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the last time we met at the coffee shop.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nǐ zài nà ér gōng zuò duō ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>á</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng shí jiān le ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A: 我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>猜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也是，否则你也不会在那里工作这么长时间，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so, or you won't be working there for so long. How </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cāi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yě shì ，fǒu zé nǐ yě bú huì zài nà lǐ gōng zuò </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>zhè me ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>á</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng shí jiān ，nǐ de lǎo bǎn zěn me yàng ？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A; Quite a woman, huh?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82610,7 +83701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A005D37-FD6D-4379-A669-A0870383C70E}">
   <dimension ref="C2:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -82843,6 +83934,315 @@
     <row r="37" spans="3:25" x14ac:dyDescent="0.35">
       <c r="D37" s="23" t="s">
         <v>2607</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F515B155-86E1-407A-A069-D1C363DCCC37}">
+  <dimension ref="C2:Z54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="2.640625" style="23"/>
+    <col min="4" max="4" width="2.640625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="2.640625" style="23"/>
+    <col min="9" max="9" width="2.7109375" style="23" customWidth="1"/>
+    <col min="10" max="15" width="2.640625" style="23"/>
+    <col min="16" max="16" width="2.640625" style="23" customWidth="1"/>
+    <col min="17" max="36" width="2.640625" style="23"/>
+    <col min="37" max="37" width="2.640625" style="23" customWidth="1"/>
+    <col min="38" max="39" width="2.640625" style="23"/>
+    <col min="40" max="40" width="2.640625" style="23" customWidth="1"/>
+    <col min="41" max="16384" width="2.640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C2" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D4" s="23" t="s">
+        <v>2644</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="E5" s="23" t="s">
+        <v>2616</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="E6" s="23" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="E7" s="23" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D8" s="23" t="s">
+        <v>2617</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="E9" s="23" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D11" s="23" t="s">
+        <v>2618</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="E12" s="23" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D14" s="23" t="s">
+        <v>2646</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="E15" s="23" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>2649</v>
+      </c>
+      <c r="Y17" s="23" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E18" s="23" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D20" s="23" t="s">
+        <v>2151</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E21" s="23" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D23" s="23" t="s">
+        <v>2619</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E24" s="23" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D26" s="23" t="s">
+        <v>2652</v>
+      </c>
+      <c r="Y26" s="23" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E27" s="23" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
+        <v>2671</v>
+      </c>
+      <c r="Y29" s="23" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E30" s="23" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z30" s="23" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E31" s="23" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E32" s="23" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D33" s="23" t="s">
+        <v>2656</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D34" s="23" t="s">
+        <v>2659</v>
+      </c>
+      <c r="Z34" s="23" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E35" s="23" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E36" s="23" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E37" s="23" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D38" s="23" t="s">
+        <v>2621</v>
+      </c>
+      <c r="Y38" s="23" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E39" s="23" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D41" s="23" t="s">
+        <v>2662</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E42" s="23" t="s">
+        <v>2622</v>
+      </c>
+      <c r="Z42" s="23" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E43" s="23" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E44" s="23" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D45" s="23" t="s">
+        <v>2623</v>
+      </c>
+      <c r="Y45" s="23" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E46" s="23" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D48" s="23" t="s">
+        <v>2624</v>
+      </c>
+      <c r="Y48" s="23" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="49" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E49" s="23" t="s">
+        <v>2666</v>
+      </c>
+      <c r="Z49" s="23" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="50" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E50" s="23" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="51" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E51" s="23" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="52" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E52" s="23" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="53" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="D53" s="23" t="s">
+        <v>2625</v>
+      </c>
+      <c r="Y53" s="23" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="54" spans="4:26" x14ac:dyDescent="0.35">
+      <c r="E54" s="23" t="s">
+        <v>2643</v>
       </c>
     </row>
   </sheetData>
